--- a/inst/extdata/CopyOfData/howard7.xlsx
+++ b/inst/extdata/CopyOfData/howard7.xlsx
@@ -1,26 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Desktop/woodcarb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1860" windowWidth="26680" windowHeight="12460" tabRatio="500"/>
+    <workbookView xWindow="3860" yWindow="800" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+  <si>
+    <t>Industrial roundwood use</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Fuel-</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>All products</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Plywood and veneer</t>
+  </si>
+  <si>
+    <t>Pulpwood-based products</t>
+  </si>
+  <si>
+    <t>products,</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>Pulpwood chip</t>
+  </si>
+  <si>
+    <t>produc-</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>tion and</t>
+  </si>
+  <si>
+    <t>Produc-</t>
+  </si>
+  <si>
+    <t>Consump-</t>
+  </si>
+  <si>
+    <t>Im-</t>
+  </si>
+  <si>
+    <t>Ex-</t>
+  </si>
+  <si>
+    <t>and con-</t>
+  </si>
+  <si>
+    <t>Ex -</t>
+  </si>
+  <si>
+    <t>con-</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>tion</t>
+  </si>
+  <si>
+    <t>ports</t>
+  </si>
+  <si>
+    <t>sumption</t>
+  </si>
+  <si>
+    <t>Table 7a--Production, imports, exports, and consumption of hardwood timber products, by major product, 1965-1999 (million cubic feet, roundwood equivalent)a</t>
+  </si>
+  <si>
+    <t>portsb</t>
+  </si>
+  <si>
+    <t>sumptionc</t>
+  </si>
+  <si>
+    <t>aU.S. Department of Agriculture, Forest Service (16, 69); Data may not add to totals because of rounding; Data have been revised.</t>
+  </si>
+  <si>
+    <t>bIncludes pulpwood and the pulpwood equivalent of wood pulp and paper and board.</t>
+  </si>
+  <si>
+    <t>cIncludes cooperage logs, poles and piling, fence posts, hewn ties, round mine timbers, box bolts, excelsior bolts, chemical wood, shingle bolts, and miscellaneous items.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -113,7 +212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -333,1886 +432,1458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="T4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="T6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" t="s">
+        <v>25</v>
+      </c>
+      <c r="X8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10">
+        <v>1965</v>
+      </c>
+      <c r="B10">
         <v>3762.8142006751577</v>
       </c>
-      <c r="B1">
+      <c r="C10">
         <v>3987.4359838677974</v>
       </c>
-      <c r="C1">
+      <c r="D10">
         <v>2911.6542006751574</v>
       </c>
-      <c r="D1">
+      <c r="E10">
         <v>312.45940419388836</v>
       </c>
-      <c r="E1">
+      <c r="F10">
         <v>88.641748289383926</v>
       </c>
-      <c r="F1">
+      <c r="G10">
         <v>3136.2759838677971</v>
       </c>
-      <c r="G1">
+      <c r="H10">
         <v>1649.8993179718777</v>
       </c>
-      <c r="H1">
+      <c r="I10">
         <v>58.240418118466899</v>
       </c>
-      <c r="I1">
+      <c r="J10">
         <v>17.421602787456447</v>
       </c>
-      <c r="J1">
+      <c r="K10">
         <v>1690.7181333028882</v>
       </c>
-      <c r="K1">
+      <c r="L10">
         <v>125</v>
       </c>
-      <c r="L1">
+      <c r="M10">
         <v>54.535290000000003</v>
       </c>
-      <c r="M1">
+      <c r="N10">
         <v>0.3394172881355933</v>
       </c>
-      <c r="N1">
+      <c r="O10">
         <v>180</v>
       </c>
-      <c r="O1">
+      <c r="P10">
         <v>863.73433185582167</v>
       </c>
-      <c r="P1">
+      <c r="Q10">
         <v>190.95000963474351</v>
       </c>
-      <c r="Q1">
+      <c r="R10">
         <v>57.860177366334256</v>
       </c>
-      <c r="R1">
+      <c r="S10">
         <v>996.82416412423095</v>
       </c>
-      <c r="S1">
+      <c r="T10">
         <v>260</v>
       </c>
-      <c r="T1">
+      <c r="U10">
         <v>8.7336864406779657</v>
       </c>
-      <c r="U1">
+      <c r="V10">
         <v>13.020550847457628</v>
       </c>
-      <c r="V1">
+      <c r="W10">
         <v>1E-3</v>
       </c>
-      <c r="W1">
+      <c r="X10">
         <v>3.2053922598269837</v>
       </c>
-      <c r="X1">
+      <c r="Y10">
         <v>851.16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="11" spans="1:25">
+      <c r="A11">
+        <v>1966</v>
+      </c>
+      <c r="B11">
         <v>3897.3195646301951</v>
       </c>
-      <c r="B2">
+      <c r="C11">
         <v>4142.4211112069561</v>
       </c>
-      <c r="C2">
+      <c r="D11">
         <v>3044.519564630195</v>
       </c>
-      <c r="D2">
+      <c r="E11">
         <v>356.90358048652445</v>
       </c>
-      <c r="E2">
+      <c r="F11">
         <v>111.97341611315278</v>
       </c>
-      <c r="F2">
+      <c r="G11">
         <v>3289.6211112069564</v>
       </c>
-      <c r="G2">
+      <c r="H11">
         <v>1708.6088625802777</v>
       </c>
-      <c r="H2">
+      <c r="I11">
         <v>73.310104529616723</v>
       </c>
-      <c r="I2">
+      <c r="J11">
         <v>34.843205574912893</v>
       </c>
-      <c r="J2">
+      <c r="K11">
         <v>1747.0757615349814</v>
       </c>
-      <c r="K2">
+      <c r="L11">
         <v>128</v>
       </c>
-      <c r="L2">
+      <c r="M11">
         <v>65.312838000000013</v>
       </c>
-      <c r="M2">
+      <c r="N11">
         <v>0.48422020338983057</v>
       </c>
-      <c r="N2">
+      <c r="O11">
         <v>193</v>
       </c>
-      <c r="O2">
+      <c r="P11">
         <v>940.83390120245974</v>
       </c>
-      <c r="P2">
+      <c r="Q11">
         <v>209.78688795690769</v>
       </c>
-      <c r="Q2">
+      <c r="R11">
         <v>64.569189487392435</v>
       </c>
-      <c r="R2">
+      <c r="S11">
         <v>1086.0515996719751</v>
       </c>
-      <c r="S2">
+      <c r="T11">
         <v>255</v>
       </c>
-      <c r="T2">
+      <c r="U11">
         <v>8.4937500000000004</v>
       </c>
-      <c r="U2">
+      <c r="V11">
         <v>12.076800847457626</v>
       </c>
-      <c r="V2">
+      <c r="W11">
         <v>1E-3</v>
       </c>
-      <c r="W2">
+      <c r="X11">
         <v>7.5111430566094999</v>
       </c>
-      <c r="X2">
+      <c r="Y11">
         <v>852.8</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="12" spans="1:25">
+      <c r="A12">
+        <v>1967</v>
+      </c>
+      <c r="B12">
         <v>3774.1872248162681</v>
       </c>
-      <c r="B3">
+      <c r="C12">
         <v>3978.7100202723277</v>
       </c>
-      <c r="C3">
+      <c r="D12">
         <v>2900.0672248162678</v>
       </c>
-      <c r="D3">
+      <c r="E12">
         <v>322.8445828505632</v>
       </c>
-      <c r="E3">
+      <c r="F12">
         <v>119.0696915978934</v>
       </c>
-      <c r="F3">
+      <c r="G12">
         <v>3104.5900202723274</v>
       </c>
-      <c r="G3">
+      <c r="H12">
         <v>1628.4426625655026</v>
       </c>
-      <c r="H3">
+      <c r="I12">
         <v>59.703832752613238</v>
       </c>
-      <c r="I3">
+      <c r="J12">
         <v>34.843205574912893</v>
       </c>
-      <c r="J3">
+      <c r="K12">
         <v>1653.3032897432029</v>
       </c>
-      <c r="K3">
+      <c r="L12">
         <v>119</v>
       </c>
-      <c r="L3">
+      <c r="M12">
         <v>64.792038000000019</v>
       </c>
-      <c r="M3">
+      <c r="N12">
         <v>0.53994220338983068</v>
       </c>
-      <c r="N3">
+      <c r="O12">
         <v>184</v>
       </c>
-      <c r="O3">
+      <c r="P12">
         <v>907.10867242025654</v>
       </c>
-      <c r="P3">
+      <c r="Q12">
         <v>191.45453836913637</v>
       </c>
-      <c r="Q3">
+      <c r="R12">
         <v>68.170653989082211</v>
       </c>
-      <c r="R3">
+      <c r="S12">
         <v>1030.3925568003108</v>
       </c>
-      <c r="S3">
+      <c r="T12">
         <v>230</v>
       </c>
-      <c r="T3">
+      <c r="U12">
         <v>6.8941737288135592</v>
       </c>
-      <c r="U3">
+      <c r="V12">
         <v>15.515889830508474</v>
       </c>
-      <c r="V3">
+      <c r="W12">
         <v>1E-3</v>
       </c>
-      <c r="W3">
+      <c r="X12">
         <v>20.336698902210752</v>
       </c>
-      <c r="X3">
+      <c r="Y12">
         <v>874.12</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="13" spans="1:25">
+      <c r="A13">
+        <v>1968</v>
+      </c>
+      <c r="B13">
         <v>3742.4031452957265</v>
       </c>
-      <c r="B4">
+      <c r="C13">
         <v>3987.1182866672202</v>
       </c>
-      <c r="C4">
+      <c r="D13">
         <v>2842.0431452957264</v>
       </c>
-      <c r="D4">
+      <c r="E13">
         <v>352.83972117127524</v>
       </c>
-      <c r="E4">
+      <c r="F13">
         <v>107.68919329130649</v>
       </c>
-      <c r="F4">
+      <c r="G13">
         <v>3086.7582866672201</v>
       </c>
-      <c r="G4">
+      <c r="H13">
         <v>1528.8367143717996</v>
       </c>
-      <c r="H4">
+      <c r="I13">
         <v>60.121951219512198</v>
       </c>
-      <c r="I4">
+      <c r="J13">
         <v>17.421602787456447</v>
       </c>
-      <c r="J4">
+      <c r="K13">
         <v>1571.5370628038552</v>
       </c>
-      <c r="K4">
+      <c r="L13">
         <v>127</v>
       </c>
-      <c r="L4">
+      <c r="M13">
         <v>98.237940000000023</v>
       </c>
-      <c r="M4">
+      <c r="N13">
         <v>0.80255349152542399</v>
       </c>
-      <c r="N4">
+      <c r="O13">
         <v>224</v>
       </c>
-      <c r="O4">
+      <c r="P13">
         <v>937.41820468768674</v>
       </c>
-      <c r="P4">
+      <c r="Q13">
         <v>187.13777486701724</v>
       </c>
-      <c r="Q4">
+      <c r="R13">
         <v>74.285058198765313</v>
       </c>
-      <c r="R4">
+      <c r="S13">
         <v>1050.2709213559388</v>
       </c>
-      <c r="S4">
+      <c r="T13">
         <v>233.60824742268045</v>
       </c>
-      <c r="T4">
+      <c r="U13">
         <v>7.3420550847457626</v>
       </c>
-      <c r="U4">
+      <c r="V13">
         <v>15.17997881355932</v>
       </c>
-      <c r="V4">
+      <c r="W13">
         <v>1E-3</v>
       </c>
-      <c r="W4">
+      <c r="X13">
         <v>43.619647655182874</v>
       </c>
-      <c r="X4">
+      <c r="Y13">
         <v>900.36</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="14" spans="1:25">
+      <c r="A14">
+        <v>1969</v>
+      </c>
+      <c r="B14">
         <v>3881.192599170754</v>
       </c>
-      <c r="B5">
+      <c r="C14">
         <v>4172.8057327975976</v>
       </c>
-      <c r="C5">
+      <c r="D14">
         <v>2979.192599170754</v>
       </c>
-      <c r="D5">
+      <c r="E14">
         <v>409.75235396741192</v>
       </c>
-      <c r="E5">
+      <c r="F14">
         <v>118.50762874734886</v>
       </c>
-      <c r="F5">
+      <c r="G14">
         <v>3270.8057327975976</v>
       </c>
-      <c r="G5">
+      <c r="H14">
         <v>1528.6202759127643</v>
       </c>
-      <c r="H5">
+      <c r="I14">
         <v>77.804878048780495</v>
       </c>
-      <c r="I5">
+      <c r="J14">
         <v>17.421602787456447</v>
       </c>
-      <c r="J5">
+      <c r="K14">
         <v>1589.0035511740882</v>
       </c>
-      <c r="K5">
+      <c r="L14">
         <v>118</v>
       </c>
-      <c r="L5">
+      <c r="M14">
         <v>109.75515000000001</v>
       </c>
-      <c r="M5">
+      <c r="N14">
         <v>1.1235584067796613</v>
       </c>
-      <c r="N5">
+      <c r="O14">
         <v>227</v>
       </c>
-      <c r="O5">
+      <c r="P14">
         <v>1049.4140512334047</v>
       </c>
-      <c r="P5">
+      <c r="Q14">
         <v>215.7620293084619</v>
       </c>
-      <c r="Q5">
+      <c r="R14">
         <v>87.133865858197495</v>
       </c>
-      <c r="R5">
+      <c r="S14">
         <v>1178.0422146836693</v>
       </c>
-      <c r="S5">
+      <c r="T14">
         <v>270.32967032967031</v>
       </c>
-      <c r="T5">
+      <c r="U14">
         <v>6.4302966101694912</v>
       </c>
-      <c r="U5">
+      <c r="V14">
         <v>12.828601694915255</v>
       </c>
-      <c r="V5">
+      <c r="W14">
         <v>1E-3</v>
       </c>
-      <c r="W5">
+      <c r="X14">
         <v>63.194866555370055</v>
       </c>
-      <c r="X5">
+      <c r="Y14">
         <v>902</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="15" spans="1:25">
+      <c r="A15">
+        <v>1970</v>
+      </c>
+      <c r="B15">
         <v>4248.5771802622548</v>
       </c>
-      <c r="B6">
+      <c r="C15">
         <v>4482.0160387299184</v>
       </c>
-      <c r="C6">
+      <c r="D15">
         <v>3211.2771802622547</v>
       </c>
-      <c r="D6">
+      <c r="E15">
         <v>366.6296275461757</v>
       </c>
-      <c r="E6">
+      <c r="F15">
         <v>133.75290141749483</v>
       </c>
-      <c r="F6">
+      <c r="G15">
         <v>3444.7160387299186</v>
       </c>
-      <c r="G6">
+      <c r="H15">
         <v>1673.7197508323113</v>
       </c>
-      <c r="H6">
+      <c r="I15">
         <v>67.34</v>
       </c>
-      <c r="I6">
+      <c r="J15">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="K15">
         <v>1721.0597508323112</v>
       </c>
-      <c r="K6">
+      <c r="L15">
         <v>115</v>
       </c>
-      <c r="L6">
+      <c r="M15">
         <v>106.61077200000001</v>
       </c>
-      <c r="M6">
+      <c r="N15">
         <v>3.1729043389830514</v>
       </c>
-      <c r="N6">
+      <c r="O15">
         <v>219</v>
       </c>
-      <c r="O6">
+      <c r="P15">
         <v>1112.3834077449983</v>
       </c>
-      <c r="P6">
+      <c r="Q15">
         <v>186.61646147837908</v>
       </c>
-      <c r="Q6">
+      <c r="R15">
         <v>99.558916570037212</v>
       </c>
-      <c r="R6">
+      <c r="S15">
         <v>1199.4409526533402</v>
       </c>
-      <c r="S6">
+      <c r="T15">
         <v>299.15294117647062</v>
       </c>
-      <c r="T6">
+      <c r="U15">
         <v>6.0623940677966104</v>
       </c>
-      <c r="U6">
+      <c r="V15">
         <v>11.021080508474576</v>
       </c>
-      <c r="V6">
+      <c r="W15">
         <v>1E-3</v>
       </c>
-      <c r="W6">
+      <c r="X15">
         <v>65.150725031276536</v>
       </c>
-      <c r="X6">
+      <c r="Y15">
         <v>1037.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="16" spans="1:25">
+      <c r="A16">
+        <v>1971</v>
+      </c>
+      <c r="B16">
         <v>3912.3269121109452</v>
       </c>
-      <c r="B7">
+      <c r="C16">
         <v>4171.4740993022433</v>
       </c>
-      <c r="C7">
+      <c r="D16">
         <v>2895.272805910945</v>
       </c>
-      <c r="D7">
+      <c r="E16">
         <v>394.06052395394755</v>
       </c>
-      <c r="E7">
+      <c r="F16">
         <v>135.43556971180175</v>
       </c>
-      <c r="F7">
+      <c r="G16">
         <v>3154.4199931022431</v>
       </c>
-      <c r="G7">
+      <c r="H16">
         <v>1479.9859387792608</v>
       </c>
-      <c r="H7">
+      <c r="I16">
         <v>62.317073170731703</v>
       </c>
-      <c r="I7">
+      <c r="J16">
         <v>34.843205574912893</v>
       </c>
-      <c r="J7">
+      <c r="K16">
         <v>1507.4598063750796</v>
       </c>
-      <c r="K7">
+      <c r="L16">
         <v>125</v>
       </c>
-      <c r="L7">
+      <c r="M16">
         <v>132.39187800000002</v>
       </c>
-      <c r="M7">
+      <c r="N16">
         <v>0.91411094915254265</v>
       </c>
-      <c r="N7">
+      <c r="O16">
         <v>257</v>
       </c>
-      <c r="O7">
+      <c r="P16">
         <v>1012.4879213485513</v>
       </c>
-      <c r="P7">
+      <c r="Q16">
         <v>194.82477193575821</v>
       </c>
-      <c r="Q7">
+      <c r="R16">
         <v>90.240753187736317</v>
       </c>
-      <c r="R7">
+      <c r="S16">
         <v>1117.0719400965731</v>
       </c>
-      <c r="S7">
+      <c r="T16">
         <v>268.36144578313252</v>
       </c>
-      <c r="T7">
+      <c r="U16">
         <v>4.5268008474576273</v>
       </c>
-      <c r="U7">
+      <c r="V16">
         <v>9.4375</v>
       </c>
-      <c r="V7">
+      <c r="W16">
         <v>1E-3</v>
       </c>
-      <c r="W7">
+      <c r="X16">
         <v>53.312698410741902</v>
       </c>
-      <c r="X7">
+      <c r="Y16">
         <v>1017.0541062</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="17" spans="1:27">
+      <c r="A17">
+        <v>1972</v>
+      </c>
+      <c r="B17">
         <v>3982.5446625355521</v>
       </c>
-      <c r="B8">
+      <c r="C17">
         <v>4287.064345729128</v>
       </c>
-      <c r="C8">
+      <c r="D17">
         <v>2934.9706845355522</v>
       </c>
-      <c r="D8">
+      <c r="E17">
         <v>448.15547946378035</v>
       </c>
-      <c r="E8">
+      <c r="F17">
         <v>143.94859779562714</v>
       </c>
-      <c r="F8">
+      <c r="G17">
         <v>3239.4903677291286</v>
       </c>
-      <c r="G8">
+      <c r="H17">
         <v>1489.282732435074</v>
       </c>
-      <c r="H8">
+      <c r="I17">
         <v>78.188153310104525</v>
       </c>
-      <c r="I8">
+      <c r="J17">
         <v>34.843205574912893</v>
       </c>
-      <c r="J8">
+      <c r="K17">
         <v>1532.6276801702656</v>
       </c>
-      <c r="K8">
+      <c r="L17">
         <v>133</v>
       </c>
-      <c r="L8">
+      <c r="M17">
         <v>164.37351600000002</v>
       </c>
-      <c r="M8">
+      <c r="N17">
         <v>1.6863175254237293</v>
       </c>
-      <c r="N8">
+      <c r="O17">
         <v>296</v>
       </c>
-      <c r="O8">
+      <c r="P17">
         <v>1074.2728691856423</v>
       </c>
-      <c r="P8">
+      <c r="Q17">
         <v>201.11499659435376</v>
       </c>
-      <c r="Q8">
+      <c r="R17">
         <v>92.399053508849832</v>
       </c>
-      <c r="R8">
+      <c r="S17">
         <v>1182.9888122711461</v>
       </c>
-      <c r="S8">
+      <c r="T17">
         <v>223.39506172839509</v>
       </c>
-      <c r="T8">
+      <c r="U17">
         <v>4.4788135593220337</v>
       </c>
-      <c r="U8">
+      <c r="V17">
         <v>15.020021186440678</v>
       </c>
-      <c r="V8">
+      <c r="W17">
         <v>1E-3</v>
       </c>
-      <c r="W8">
+      <c r="X17">
         <v>68.013709893844364</v>
       </c>
-      <c r="X8">
+      <c r="Y17">
         <v>1047.5739779999999</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="18" spans="1:27">
+      <c r="A18">
+        <v>1973</v>
+      </c>
+      <c r="B18">
         <v>4055.4762049576161</v>
       </c>
-      <c r="B9">
+      <c r="C18">
         <v>4363.1859947427838</v>
       </c>
-      <c r="C9">
+      <c r="D18">
         <v>3063.9928021576161</v>
       </c>
-      <c r="D9">
+      <c r="E18">
         <v>458.5800700113266</v>
       </c>
-      <c r="E9">
+      <c r="F18">
         <v>150.92919324310773</v>
       </c>
-      <c r="F9">
+      <c r="G18">
         <v>3371.7025919427842</v>
       </c>
-      <c r="G9">
+      <c r="H18">
         <v>1543.0915014204083</v>
       </c>
-      <c r="H9">
+      <c r="I18">
         <v>95.592334494773525</v>
       </c>
-      <c r="I9">
+      <c r="J18">
         <v>34.843205574912893</v>
       </c>
-      <c r="J9">
+      <c r="K18">
         <v>1603.8406303402689</v>
       </c>
-      <c r="K9">
+      <c r="L18">
         <v>122</v>
       </c>
-      <c r="L9">
+      <c r="M18">
         <v>131.61971400000002</v>
       </c>
-      <c r="M9">
+      <c r="N18">
         <v>2.6786270169491537</v>
       </c>
-      <c r="N9">
+      <c r="O18">
         <v>251</v>
       </c>
-      <c r="O9">
+      <c r="P18">
         <v>1172.9043492306166</v>
       </c>
-      <c r="P9">
+      <c r="Q18">
         <v>227.36908083858694</v>
       </c>
-      <c r="Q9">
+      <c r="R18">
         <v>95.188186922432109</v>
       </c>
-      <c r="R9">
+      <c r="S18">
         <v>1305.0852431467715</v>
       </c>
-      <c r="S9">
+      <c r="T18">
         <v>207.77777777777777</v>
       </c>
-      <c r="T9">
+      <c r="U18">
         <v>3.9989406779661016</v>
       </c>
-      <c r="U9">
+      <c r="V18">
         <v>18.219173728813558</v>
       </c>
-      <c r="V9">
+      <c r="W18">
         <v>1E-3</v>
       </c>
-      <c r="W9">
+      <c r="X18">
         <v>93.783543558264597</v>
       </c>
-      <c r="X9">
+      <c r="Y18">
         <v>991.48340279999991</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="19" spans="1:27">
+      <c r="A19">
+        <v>1974</v>
+      </c>
+      <c r="B19">
         <v>4136.5456908518145</v>
       </c>
-      <c r="B10">
+      <c r="C19">
         <v>4380.7126429121672</v>
       </c>
-      <c r="C10">
+      <c r="D19">
         <v>3051.0280884518143</v>
       </c>
-      <c r="D10">
+      <c r="E19">
         <v>425.69656018885922</v>
       </c>
-      <c r="E10">
+      <c r="F19">
         <v>181.25116358613326</v>
       </c>
-      <c r="F10">
+      <c r="G19">
         <v>3295.1950405121675</v>
       </c>
-      <c r="G10">
+      <c r="H19">
         <v>1484.4338131727709</v>
       </c>
-      <c r="H10">
+      <c r="I19">
         <v>78.344947735191639</v>
       </c>
-      <c r="I10">
+      <c r="J19">
         <v>34.843205574912893</v>
       </c>
-      <c r="J10">
+      <c r="K19">
         <v>1527.9355553330497</v>
       </c>
-      <c r="K10">
+      <c r="L19">
         <v>97</v>
       </c>
-      <c r="L10">
+      <c r="M19">
         <v>85.625544000000019</v>
       </c>
-      <c r="M10">
+      <c r="N19">
         <v>4.3470994576271202</v>
       </c>
-      <c r="N10">
+      <c r="O19">
         <v>178</v>
       </c>
-      <c r="O10">
+      <c r="P19">
         <v>1277.2402163324655</v>
       </c>
-      <c r="P10">
+      <c r="Q19">
         <v>256.76738201298957</v>
       </c>
-      <c r="Q10">
+      <c r="R19">
         <v>123.07388821461021</v>
       </c>
-      <c r="R10">
+      <c r="S19">
         <v>1410.9337101308449</v>
       </c>
-      <c r="S10">
+      <c r="T19">
         <v>173.36708860759495</v>
       </c>
-      <c r="T10">
+      <c r="U19">
         <v>4.9586864406779663</v>
       </c>
-      <c r="U10">
+      <c r="V19">
         <v>18.986970338983053</v>
       </c>
-      <c r="V10">
+      <c r="W19">
         <v>1E-3</v>
       </c>
-      <c r="W10">
+      <c r="X19">
         <v>104.15443893179869</v>
       </c>
-      <c r="X10">
+      <c r="Y19">
         <v>1085.5176024</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="20" spans="1:27">
+      <c r="A20">
+        <v>1975</v>
+      </c>
+      <c r="B20">
         <v>3511.9035294747005</v>
       </c>
-      <c r="B11">
+      <c r="C20">
         <v>3681.3326184261264</v>
       </c>
-      <c r="C11">
+      <c r="D20">
         <v>2473.4030268747006</v>
       </c>
-      <c r="D11">
+      <c r="E20">
         <v>309.57300813440497</v>
       </c>
-      <c r="E11">
+      <c r="F20">
         <v>139.96603064060611</v>
       </c>
-      <c r="F11">
+      <c r="G20">
         <v>2642.8321158261265</v>
       </c>
-      <c r="G11">
+      <c r="H20">
         <v>1282.156340797932</v>
       </c>
-      <c r="H11">
+      <c r="I20">
         <v>43.90243902439024</v>
       </c>
-      <c r="I11">
+      <c r="J20">
         <v>34.843205574912893</v>
       </c>
-      <c r="J11">
+      <c r="K20">
         <v>1291.2155742474094</v>
       </c>
-      <c r="K11">
+      <c r="L20">
         <v>79</v>
       </c>
-      <c r="L11">
+      <c r="M20">
         <v>99.899982000000023</v>
       </c>
-      <c r="M11">
+      <c r="N20">
         <v>4.7220934576271212</v>
       </c>
-      <c r="N11">
+      <c r="O20">
         <v>174</v>
       </c>
-      <c r="O11">
+      <c r="P20">
         <v>951.64149539880236</v>
       </c>
-      <c r="P11">
+      <c r="Q20">
         <v>163.05130744899773</v>
       </c>
-      <c r="Q11">
+      <c r="R20">
         <v>89.795540930099975</v>
       </c>
-      <c r="R11">
+      <c r="S20">
         <v>1024.8972619177</v>
       </c>
-      <c r="S11">
+      <c r="T20">
         <v>150</v>
       </c>
-      <c r="T11">
+      <c r="U20">
         <v>2.719279661016949</v>
       </c>
-      <c r="U11">
+      <c r="V20">
         <v>10.605190677966101</v>
       </c>
-      <c r="V11">
+      <c r="W20">
         <v>1E-3</v>
       </c>
-      <c r="W11">
+      <c r="X20">
         <v>85.601465449992418</v>
       </c>
-      <c r="X11">
+      <c r="Y20">
         <v>1038.5005025999999</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="21" spans="1:27">
+      <c r="A21">
+        <v>1976</v>
+      </c>
+      <c r="B21">
         <v>3737.7644057998004</v>
       </c>
-      <c r="B12">
+      <c r="C21">
         <v>3956.8868312798868</v>
       </c>
-      <c r="C12">
+      <c r="D21">
         <v>2721.5351609998006</v>
       </c>
-      <c r="D12">
+      <c r="E21">
         <v>367.29660995915111</v>
       </c>
-      <c r="E12">
+      <c r="F21">
         <v>148.65888251296292</v>
       </c>
-      <c r="F12">
+      <c r="G21">
         <v>2940.657586479887</v>
       </c>
-      <c r="G12">
+      <c r="H21">
         <v>1401.7651029703975</v>
       </c>
-      <c r="H12">
+      <c r="I21">
         <v>50.226480836236931</v>
       </c>
-      <c r="I12">
+      <c r="J21">
         <v>34.843205574912893</v>
       </c>
-      <c r="J12">
+      <c r="K21">
         <v>1417.1483782317216</v>
       </c>
-      <c r="K12">
+      <c r="L21">
         <v>84</v>
       </c>
-      <c r="L12">
+      <c r="M21">
         <v>122.71864800000003</v>
       </c>
-      <c r="M12">
+      <c r="N21">
         <v>5.2033460338983071</v>
       </c>
-      <c r="N12">
+      <c r="O21">
         <v>202</v>
       </c>
-      <c r="O12">
+      <c r="P21">
         <v>1085.6860537921148</v>
       </c>
-      <c r="P12">
+      <c r="Q21">
         <v>192.08008281782941</v>
       </c>
-      <c r="Q12">
+      <c r="R21">
         <v>93.528326666863606</v>
       </c>
-      <c r="R12">
+      <c r="S21">
         <v>1184.2378099430805</v>
       </c>
-      <c r="S12">
+      <c r="T21">
         <v>135</v>
       </c>
-      <c r="T12">
+      <c r="U21">
         <v>2.2713983050847455</v>
       </c>
-      <c r="U12">
+      <c r="V21">
         <v>15.084004237288134</v>
       </c>
-      <c r="V12">
+      <c r="W21">
         <v>1E-3</v>
       </c>
-      <c r="W12">
+      <c r="X21">
         <v>106.33731639444119</v>
       </c>
-      <c r="X12">
+      <c r="Y21">
         <v>1016.2292447999999</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="22" spans="1:27">
+      <c r="A22">
+        <v>1977</v>
+      </c>
+      <c r="B22">
         <v>4058.7167721487531</v>
       </c>
-      <c r="B13">
+      <c r="C22">
         <v>4287.8648253452238</v>
       </c>
-      <c r="C13">
+      <c r="D22">
         <v>2820.599810748753</v>
       </c>
-      <c r="D13">
+      <c r="E22">
         <v>371.91863986661087</v>
       </c>
-      <c r="E13">
+      <c r="F22">
         <v>143.44022704302168</v>
       </c>
-      <c r="F13">
+      <c r="G22">
         <v>3049.7478639452238</v>
       </c>
-      <c r="G13">
+      <c r="H22">
         <v>1495.257442680962</v>
       </c>
-      <c r="H13">
+      <c r="I22">
         <v>59.878048780487802</v>
       </c>
-      <c r="I13">
+      <c r="J22">
         <v>34.843205574912893</v>
       </c>
-      <c r="J13">
+      <c r="K22">
         <v>1520.292285886537</v>
       </c>
-      <c r="K13">
+      <c r="L22">
         <v>91</v>
       </c>
-      <c r="L13">
+      <c r="M22">
         <v>117.415716</v>
       </c>
-      <c r="M13">
+      <c r="N22">
         <v>4.0853563728813569</v>
       </c>
-      <c r="N13">
+      <c r="O22">
         <v>205</v>
       </c>
-      <c r="O13">
+      <c r="P22">
         <v>1074.994168915249</v>
       </c>
-      <c r="P13">
+      <c r="Q22">
         <v>192.22551067934342</v>
       </c>
-      <c r="Q13">
+      <c r="R22">
         <v>90.163465942685065</v>
       </c>
-      <c r="R13">
+      <c r="S22">
         <v>1177.0562136519075</v>
       </c>
-      <c r="S13">
+      <c r="T22">
         <v>145</v>
       </c>
-      <c r="T13">
+      <c r="U22">
         <v>2.3993644067796609</v>
       </c>
-      <c r="U13">
+      <c r="V22">
         <v>14.348199152542373</v>
       </c>
-      <c r="V13">
+      <c r="W22">
         <v>1E-3</v>
       </c>
-      <c r="W13">
+      <c r="X22">
         <v>112.88891868367833</v>
       </c>
-      <c r="X13">
+      <c r="Y22">
         <v>1238.1169614</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="23" spans="1:27">
+      <c r="A23">
+        <v>1978</v>
+      </c>
+      <c r="B23">
         <v>4602.0997120430193</v>
       </c>
-      <c r="B14">
+      <c r="C23">
         <v>4841.9547284319742</v>
       </c>
-      <c r="C14">
+      <c r="D23">
         <v>3029.9138836430193</v>
       </c>
-      <c r="D14">
+      <c r="E23">
         <v>425.67059804227893</v>
       </c>
-      <c r="E14">
+      <c r="F23">
         <v>185.97642300925699</v>
       </c>
-      <c r="F14">
+      <c r="G23">
         <v>3269.7689000319738</v>
       </c>
-      <c r="G14">
+      <c r="H23">
         <v>1577.579950394934</v>
       </c>
-      <c r="H14">
+      <c r="I23">
         <v>62.961672473867587</v>
       </c>
-      <c r="I14">
+      <c r="J23">
         <v>69.686411149825787</v>
       </c>
-      <c r="J14">
+      <c r="K23">
         <v>1570.8552117189759</v>
       </c>
-      <c r="K14">
+      <c r="L23">
         <v>92</v>
       </c>
-      <c r="L14">
+      <c r="M23">
         <v>129.87861600000002</v>
       </c>
-      <c r="M14">
+      <c r="N23">
         <v>2.0394573559322038</v>
       </c>
-      <c r="N14">
+      <c r="O23">
         <v>220</v>
       </c>
-      <c r="O14">
+      <c r="P23">
         <v>1187.612711496673</v>
       </c>
-      <c r="P14">
+      <c r="Q23">
         <v>229.98306380569946</v>
       </c>
-      <c r="Q14">
+      <c r="R23">
         <v>96.529332752086574</v>
       </c>
-      <c r="R14">
+      <c r="S23">
         <v>1321.066442550286</v>
       </c>
-      <c r="S14">
+      <c r="T23">
         <v>155</v>
       </c>
-      <c r="T14">
+      <c r="U23">
         <v>2.8472457627118644</v>
       </c>
-      <c r="U14">
+      <c r="V23">
         <v>17.721221751412429</v>
       </c>
-      <c r="V14">
+      <c r="W23">
         <v>1E-3</v>
       </c>
-      <c r="W14">
+      <c r="X23">
         <v>97.466221182314499</v>
       </c>
-      <c r="X14">
+      <c r="Y23">
         <v>1572.1858284</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="24" spans="1:27">
+      <c r="A24">
+        <v>1979</v>
+      </c>
+      <c r="B24">
         <v>4944.4331196507665</v>
       </c>
-      <c r="B15">
+      <c r="C24">
         <v>5155.8937848657206</v>
       </c>
-      <c r="C15">
+      <c r="D24">
         <v>3124.788871250767</v>
       </c>
-      <c r="D15">
+      <c r="E24">
         <v>409.53825254506745</v>
       </c>
-      <c r="E15">
+      <c r="F24">
         <v>198.3615212284187</v>
       </c>
-      <c r="F15">
+      <c r="G24">
         <v>3336.2495364657211</v>
       </c>
-      <c r="G15">
+      <c r="H24">
         <v>1639.6716734835866</v>
       </c>
-      <c r="H15">
+      <c r="I24">
         <v>65.540069686411144</v>
       </c>
-      <c r="I15">
+      <c r="J24">
         <v>69.686411149825787</v>
       </c>
-      <c r="J15">
+      <c r="K24">
         <v>1635.5253320201721</v>
       </c>
-      <c r="K15">
+      <c r="L24">
         <v>89</v>
       </c>
-      <c r="L15">
+      <c r="M24">
         <v>107.84588400000001</v>
       </c>
-      <c r="M15">
+      <c r="N24">
         <v>2.1298178983050855</v>
       </c>
-      <c r="N15">
+      <c r="O24">
         <v>195</v>
       </c>
-      <c r="O15">
+      <c r="P24">
         <v>1215.5189633039038</v>
       </c>
-      <c r="P15">
+      <c r="Q24">
         <v>233.8169175027241</v>
       </c>
-      <c r="Q15">
+      <c r="R24">
         <v>105.94705771701099</v>
       </c>
-      <c r="R15">
+      <c r="S24">
         <v>1343.3888230896168</v>
       </c>
-      <c r="S15">
+      <c r="T24">
         <v>160</v>
       </c>
-      <c r="T15">
+      <c r="U24">
         <v>2.3353813559322032</v>
       </c>
-      <c r="U15">
+      <c r="V24">
         <v>20.598234463276839</v>
       </c>
-      <c r="V15">
+      <c r="W24">
         <v>1E-3</v>
       </c>
-      <c r="W15">
+      <c r="X24">
         <v>121.20761225219755</v>
       </c>
-      <c r="X15">
+      <c r="Y24">
         <v>1819.6442483999999</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="25" spans="1:27">
+      <c r="A25">
+        <v>1980</v>
+      </c>
+      <c r="B25">
         <v>5163.2112831137338</v>
       </c>
-      <c r="B16">
+      <c r="C25">
         <v>5237.7416869370281</v>
       </c>
-      <c r="C16">
+      <c r="D25">
         <v>3092.8091691137338</v>
       </c>
-      <c r="D16">
+      <c r="E25">
         <v>333.19818015322778</v>
       </c>
-      <c r="E16">
+      <c r="F25">
         <v>258.82817334688286</v>
       </c>
-      <c r="F16">
+      <c r="G25">
         <v>3167.3395729370277</v>
       </c>
-      <c r="G16">
+      <c r="H25">
         <v>1611.1035803459959</v>
       </c>
-      <c r="H16">
+      <c r="I25">
         <v>51.080139372822295</v>
       </c>
-      <c r="I16">
+      <c r="J25">
         <v>87.108013937282223</v>
       </c>
-      <c r="J16">
+      <c r="K25">
         <v>1575.0757057815358</v>
       </c>
-      <c r="K16">
+      <c r="L25">
         <v>78</v>
       </c>
-      <c r="L16">
+      <c r="M25">
         <v>62.446082000000004</v>
       </c>
-      <c r="M16">
+      <c r="N25">
         <v>2.6064790169491534</v>
       </c>
-      <c r="N16">
+      <c r="O25">
         <v>138</v>
       </c>
-      <c r="O16">
+      <c r="P25">
         <v>1209.4232088242352</v>
       </c>
-      <c r="P16">
+      <c r="Q25">
         <v>217.52852657701567</v>
       </c>
-      <c r="Q16">
+      <c r="R25">
         <v>144.83130044914867</v>
       </c>
-      <c r="R16">
+      <c r="S25">
         <v>1282.1204349521022</v>
       </c>
-      <c r="S16">
+      <c r="T25">
         <v>170</v>
       </c>
-      <c r="T16">
+      <c r="U25">
         <v>2.1434322033898305</v>
       </c>
-      <c r="U16">
+      <c r="V25">
         <v>24.282379943502821</v>
       </c>
-      <c r="V16">
+      <c r="W25">
         <v>1E-3</v>
       </c>
-      <c r="W16">
+      <c r="X25">
         <v>120.6552106085901</v>
       </c>
-      <c r="X16">
+      <c r="Y25">
         <v>2070.402114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>5083.5976423381344</v>
-      </c>
-      <c r="B17">
-        <v>5182.5335124317426</v>
-      </c>
-      <c r="C17">
-        <v>2856.471862338135</v>
-      </c>
-      <c r="D17">
-        <v>349.29954460392776</v>
-      </c>
-      <c r="E17">
-        <v>250.6012837306597</v>
-      </c>
-      <c r="F17">
-        <v>2955.4077324317423</v>
-      </c>
-      <c r="G17">
-        <v>1318.5048112740715</v>
-      </c>
-      <c r="H17">
-        <v>50.714285714285715</v>
-      </c>
-      <c r="I17">
-        <v>87.108013937282223</v>
-      </c>
-      <c r="J17">
-        <v>1282.111083051075</v>
-      </c>
-      <c r="K17">
-        <v>75</v>
-      </c>
-      <c r="L17">
-        <v>77.225940000000008</v>
-      </c>
-      <c r="M17">
-        <v>3.4635492203389844</v>
-      </c>
-      <c r="N17">
-        <v>149</v>
-      </c>
-      <c r="O17">
-        <v>1257.8337177307303</v>
-      </c>
-      <c r="P17">
-        <v>219.19989092354032</v>
-      </c>
-      <c r="Q17">
-        <v>134.89638723970515</v>
-      </c>
-      <c r="R17">
-        <v>1342.1372214145656</v>
-      </c>
-      <c r="S17">
-        <v>180</v>
-      </c>
-      <c r="T17">
-        <v>2.1594279661016946</v>
-      </c>
-      <c r="U17">
-        <v>25.133333333333329</v>
-      </c>
-      <c r="V17">
-        <v>1E-3</v>
-      </c>
-      <c r="W17">
-        <v>95.53875523230775</v>
-      </c>
-      <c r="X17">
-        <v>2227.1257799999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>5860.1681018650088</v>
-      </c>
-      <c r="B18">
-        <v>6006.8883396999772</v>
-      </c>
-      <c r="C18">
-        <v>2940.1146813169398</v>
-      </c>
-      <c r="D18">
-        <v>359.3365101558893</v>
-      </c>
-      <c r="E18">
-        <v>212.0405451932377</v>
-      </c>
-      <c r="F18">
-        <v>3086.8349191519083</v>
-      </c>
-      <c r="G18">
-        <v>1407.1114982578397</v>
-      </c>
-      <c r="H18">
-        <v>36.759581881533101</v>
-      </c>
-      <c r="I18">
-        <v>64.285714285714278</v>
-      </c>
-      <c r="J18">
-        <v>1379.5853658536585</v>
-      </c>
-      <c r="K18">
-        <v>95</v>
-      </c>
-      <c r="L18">
-        <v>97.369152890395483</v>
-      </c>
-      <c r="M18">
-        <v>2.7934257627118653</v>
-      </c>
-      <c r="N18">
-        <v>189</v>
-      </c>
-      <c r="O18">
-        <v>1236.0513822116425</v>
-      </c>
-      <c r="P18">
-        <v>222.28055080768954</v>
-      </c>
-      <c r="Q18">
-        <v>130.05960429735396</v>
-      </c>
-      <c r="R18">
-        <v>1328.2723287219781</v>
-      </c>
-      <c r="S18">
-        <v>187.05</v>
-      </c>
-      <c r="T18">
-        <v>2.9272245762711862</v>
-      </c>
-      <c r="U18">
-        <v>14.901800847457626</v>
-      </c>
-      <c r="V18">
-        <v>1E-3</v>
-      </c>
-      <c r="W18">
-        <v>77.06002928324439</v>
-      </c>
-      <c r="X18">
-        <v>2920.0534205480685</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>6166.4096751346551</v>
-      </c>
-      <c r="B19">
-        <v>6373.1088410188604</v>
-      </c>
-      <c r="C19">
-        <v>3364.1003441248149</v>
-      </c>
-      <c r="D19">
-        <v>467.26391237769849</v>
-      </c>
-      <c r="E19">
-        <v>260.11210582343716</v>
-      </c>
-      <c r="F19">
-        <v>3570.7995100090202</v>
-      </c>
-      <c r="G19">
-        <v>1543.1126212165736</v>
-      </c>
-      <c r="H19">
-        <v>45.383275261324037</v>
-      </c>
-      <c r="I19">
-        <v>86.236933797909401</v>
-      </c>
-      <c r="J19">
-        <v>1502.2589626799884</v>
-      </c>
-      <c r="K19">
-        <v>104</v>
-      </c>
-      <c r="L19">
-        <v>140.38557909378534</v>
-      </c>
-      <c r="M19">
-        <v>2.9329384237288143</v>
-      </c>
-      <c r="N19">
-        <v>241</v>
-      </c>
-      <c r="O19">
-        <v>1503.3511762980718</v>
-      </c>
-      <c r="P19">
-        <v>277.88961310733487</v>
-      </c>
-      <c r="Q19">
-        <v>153.10568699162945</v>
-      </c>
-      <c r="R19">
-        <v>1628.1351024137773</v>
-      </c>
-      <c r="S19">
-        <v>195.8</v>
-      </c>
-      <c r="T19">
-        <v>3.6054449152542367</v>
-      </c>
-      <c r="U19">
-        <v>17.836546610169492</v>
-      </c>
-      <c r="V19">
-        <v>1E-3</v>
-      </c>
-      <c r="W19">
-        <v>67.737509072040623</v>
-      </c>
-      <c r="X19">
-        <v>2802.3093310098402</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>6642.937767735817</v>
-      </c>
-      <c r="B20">
-        <v>6899.2794495725793</v>
-      </c>
-      <c r="C20">
-        <v>3652.2378934648118</v>
-      </c>
-      <c r="D20">
-        <v>511.3345115998797</v>
-      </c>
-      <c r="E20">
-        <v>255.70030734955748</v>
-      </c>
-      <c r="F20">
-        <v>3908.5795753015741</v>
-      </c>
-      <c r="G20">
-        <v>1775.3473692707141</v>
-      </c>
-      <c r="H20">
-        <v>57.090592334494772</v>
-      </c>
-      <c r="I20">
-        <v>91.637630662020896</v>
-      </c>
-      <c r="J20">
-        <v>1740.8003309431879</v>
-      </c>
-      <c r="K20">
-        <v>103</v>
-      </c>
-      <c r="L20">
-        <v>124.6507802305085</v>
-      </c>
-      <c r="M20">
-        <v>2.3582578169491528</v>
-      </c>
-      <c r="N20">
-        <v>226</v>
-      </c>
-      <c r="O20">
-        <v>1549.057190860764</v>
-      </c>
-      <c r="P20">
-        <v>324.7784144586052</v>
-      </c>
-      <c r="Q20">
-        <v>141.62108553725409</v>
-      </c>
-      <c r="R20">
-        <v>1732.2145197821151</v>
-      </c>
-      <c r="S20">
-        <v>204.75</v>
-      </c>
-      <c r="T20">
-        <v>4.8147245762711863</v>
-      </c>
-      <c r="U20">
-        <v>20.083333333333332</v>
-      </c>
-      <c r="V20">
-        <v>1E-3</v>
-      </c>
-      <c r="W20">
-        <v>62.647098227184529</v>
-      </c>
-      <c r="X20">
-        <v>2990.6998742710057</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>6520.797792978934</v>
-      </c>
-      <c r="B21">
-        <v>6850.3666106938726</v>
-      </c>
-      <c r="C21">
-        <v>3671.3908261538031</v>
-      </c>
-      <c r="D21">
-        <v>573.35246970866456</v>
-      </c>
-      <c r="E21">
-        <v>243.78365199372649</v>
-      </c>
-      <c r="F21">
-        <v>4000.9596438687413</v>
-      </c>
-      <c r="G21">
-        <v>1691.26724379905</v>
-      </c>
-      <c r="H21">
-        <v>63.344947735191639</v>
-      </c>
-      <c r="I21">
-        <v>70.731707317073173</v>
-      </c>
-      <c r="J21">
-        <v>1683.8804842171685</v>
-      </c>
-      <c r="K21">
-        <v>92.925354000000027</v>
-      </c>
-      <c r="L21">
-        <v>148.66524069152541</v>
-      </c>
-      <c r="M21">
-        <v>2.579628338983051</v>
-      </c>
-      <c r="N21">
-        <v>239.0109663525424</v>
-      </c>
-      <c r="O21">
-        <v>1660.1615758123801</v>
-      </c>
-      <c r="P21">
-        <v>356.79948467177798</v>
-      </c>
-      <c r="Q21">
-        <v>152.68566379529739</v>
-      </c>
-      <c r="R21">
-        <v>1864.2753966888606</v>
-      </c>
-      <c r="S21">
-        <v>209.25</v>
-      </c>
-      <c r="T21">
-        <v>4.542796610169491</v>
-      </c>
-      <c r="U21">
-        <v>17.786652542372881</v>
-      </c>
-      <c r="V21">
-        <v>1E-3</v>
-      </c>
-      <c r="W21">
-        <v>62.454054642052895</v>
-      </c>
-      <c r="X21">
-        <v>2849.4069668251313</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>6967.11275099867</v>
-      </c>
-      <c r="B22">
-        <v>7253.7670869047233</v>
-      </c>
-      <c r="C22">
-        <v>4052.8774247986703</v>
-      </c>
-      <c r="D22">
-        <v>596.88329791755632</v>
-      </c>
-      <c r="E22">
-        <v>310.22896201150223</v>
-      </c>
-      <c r="F22">
-        <v>4339.5317607047236</v>
-      </c>
-      <c r="G22">
-        <v>1846.2613240418118</v>
-      </c>
-      <c r="H22">
-        <v>60.435540069686404</v>
-      </c>
-      <c r="I22">
-        <v>91.114982578397203</v>
-      </c>
-      <c r="J22">
-        <v>1815.5818815331008</v>
-      </c>
-      <c r="K22">
-        <v>96.364996000000033</v>
-      </c>
-      <c r="L22">
-        <v>151.7086311661017</v>
-      </c>
-      <c r="M22">
-        <v>3.7647777310734472</v>
-      </c>
-      <c r="N22">
-        <v>244.30884943502829</v>
-      </c>
-      <c r="O22">
-        <v>1869.4101443048808</v>
-      </c>
-      <c r="P22">
-        <v>380.51464574956481</v>
-      </c>
-      <c r="Q22">
-        <v>193.00824125005414</v>
-      </c>
-      <c r="R22">
-        <v>2056.9165488043914</v>
-      </c>
-      <c r="S22">
-        <v>218.5</v>
-      </c>
-      <c r="T22">
-        <v>4.2244809322033898</v>
-      </c>
-      <c r="U22">
-        <v>22.340960451977406</v>
-      </c>
-      <c r="V22">
-        <v>1E-3</v>
-      </c>
-      <c r="W22">
-        <v>65.426925853080277</v>
-      </c>
-      <c r="X22">
-        <v>2914.2353261999997</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>6565.5185734726792</v>
-      </c>
-      <c r="B23">
-        <v>6867.5639188955302</v>
-      </c>
-      <c r="C23">
-        <v>4149.4098561482288</v>
-      </c>
-      <c r="D23">
-        <v>649.40884606665986</v>
-      </c>
-      <c r="E23">
-        <v>347.36350064380935</v>
-      </c>
-      <c r="F23">
-        <v>4451.4552015710797</v>
-      </c>
-      <c r="G23">
-        <v>1981.9951219512193</v>
-      </c>
-      <c r="H23">
-        <v>89.041811846689896</v>
-      </c>
-      <c r="I23">
-        <v>129.61672473867594</v>
-      </c>
-      <c r="J23">
-        <v>1941.4202090592332</v>
-      </c>
-      <c r="K23">
-        <v>102.01219800000003</v>
-      </c>
-      <c r="L23">
-        <v>178.52060165875707</v>
-      </c>
-      <c r="M23">
-        <v>3.8541675355932217</v>
-      </c>
-      <c r="N23">
-        <v>276.67863212316388</v>
-      </c>
-      <c r="O23">
-        <v>1823.7211802648055</v>
-      </c>
-      <c r="P23">
-        <v>379.63261900189087</v>
-      </c>
-      <c r="Q23">
-        <v>190.01125243733676</v>
-      </c>
-      <c r="R23">
-        <v>2013.3425468293599</v>
-      </c>
-      <c r="S23">
-        <v>217.8</v>
-      </c>
-      <c r="T23">
-        <v>2.2138135593220336</v>
-      </c>
-      <c r="U23">
-        <v>23.881355932203391</v>
-      </c>
-      <c r="V23">
-        <v>1E-3</v>
-      </c>
-      <c r="W23">
-        <v>68.607690155787907</v>
-      </c>
-      <c r="X23">
-        <v>2416.1087173244505</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>6722.3609515488952</v>
-      </c>
-      <c r="B24">
-        <v>6865.8182403777937</v>
-      </c>
-      <c r="C24">
-        <v>4329.8010521320912</v>
-      </c>
-      <c r="D24">
-        <v>595.31813862636136</v>
-      </c>
-      <c r="E24">
-        <v>451.86084979746289</v>
-      </c>
-      <c r="F24">
-        <v>4473.2583409609888</v>
-      </c>
-      <c r="G24">
-        <v>2064.0703832752611</v>
-      </c>
-      <c r="H24">
-        <v>53.10038153310105</v>
-      </c>
-      <c r="I24">
-        <v>208.18815331010452</v>
-      </c>
-      <c r="J24">
-        <v>1908.9826114982575</v>
-      </c>
-      <c r="K24">
-        <v>101.11328000000003</v>
-      </c>
-      <c r="L24">
-        <v>150.34210544406778</v>
-      </c>
-      <c r="M24">
-        <v>6.0973357401129959</v>
-      </c>
-      <c r="N24">
-        <v>245.3580497039548</v>
-      </c>
-      <c r="O24">
-        <v>1892.331124732536</v>
-      </c>
-      <c r="P24">
-        <v>389.92416859834498</v>
-      </c>
-      <c r="Q24">
-        <v>204.98909662295162</v>
-      </c>
-      <c r="R24">
-        <v>2077.2661967079289</v>
-      </c>
-      <c r="S24">
-        <v>239.7</v>
-      </c>
-      <c r="T24">
-        <v>1.9514830508474577</v>
-      </c>
-      <c r="U24">
-        <v>32.586264124293784</v>
-      </c>
-      <c r="V24">
-        <v>1E-3</v>
-      </c>
-      <c r="W24">
-        <v>94.383463622827563</v>
-      </c>
-      <c r="X24">
-        <v>2392.5598994168045</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>6861.2776710750595</v>
-      </c>
-      <c r="B25">
-        <v>6878.766778766586</v>
-      </c>
-      <c r="C25">
-        <v>4553.1068460750594</v>
-      </c>
-      <c r="D25">
-        <v>547.75842086097373</v>
-      </c>
-      <c r="E25">
-        <v>530.26931316944763</v>
-      </c>
-      <c r="F25">
-        <v>4570.5959537665858</v>
-      </c>
-      <c r="G25">
-        <v>2118.0384320557491</v>
-      </c>
-      <c r="H25">
-        <v>60.871891986062714</v>
-      </c>
-      <c r="I25">
-        <v>150.34843205574913</v>
-      </c>
-      <c r="J25">
-        <v>2028.5618919860626</v>
-      </c>
-      <c r="K25">
-        <v>96.682850913724593</v>
-      </c>
-      <c r="L25">
-        <v>84.750979810169483</v>
-      </c>
-      <c r="M25">
-        <v>7.0240962169491539</v>
-      </c>
-      <c r="N25">
-        <v>174.40973450694491</v>
-      </c>
-      <c r="O25">
-        <v>1925.9986612808798</v>
-      </c>
-      <c r="P25">
-        <v>394.51027848608692</v>
-      </c>
-      <c r="Q25">
-        <v>221.35988307204323</v>
-      </c>
-      <c r="R25">
-        <v>2099.1490566949233</v>
-      </c>
-      <c r="S25">
-        <v>260.85000000000002</v>
-      </c>
-      <c r="T25">
-        <v>2.9432203389830507</v>
-      </c>
-      <c r="U25">
-        <v>34.124823446327682</v>
-      </c>
-      <c r="V25">
-        <v>4.6820502396716357</v>
-      </c>
-      <c r="W25">
-        <v>117.41207837837838</v>
-      </c>
-      <c r="X25">
-        <v>2308.1708250000001</v>
-      </c>
-      <c r="Y25">
-        <v>2008</v>
       </c>
       <c r="Z25">
         <v>2008</v>
@@ -2221,81 +1892,81 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
-        <v>6957.2080327695403</v>
+        <v>1981</v>
       </c>
       <c r="B26">
-        <v>6926.6890001252741</v>
+        <v>5083.5976423381344</v>
       </c>
       <c r="C26">
-        <v>4608.5429827695407</v>
+        <v>5182.5335124317426</v>
       </c>
       <c r="D26">
-        <v>507.05791359611976</v>
+        <v>2856.471862338135</v>
       </c>
       <c r="E26">
-        <v>537.57694624038584</v>
+        <v>349.29954460392776</v>
       </c>
       <c r="F26">
-        <v>4578.0239501252745</v>
+        <v>250.6012837306597</v>
       </c>
       <c r="G26">
-        <v>2162.9766836128215</v>
+        <v>2955.4077324317423</v>
       </c>
       <c r="H26">
-        <v>40.357290940766546</v>
+        <v>1318.5048112740715</v>
       </c>
       <c r="I26">
-        <v>150.69686411149826</v>
+        <v>50.714285714285715</v>
       </c>
       <c r="J26">
-        <v>2052.63711044209</v>
+        <v>87.108013937282223</v>
       </c>
       <c r="K26">
-        <v>95.075537085950586</v>
+        <v>1282.111083051075</v>
       </c>
       <c r="L26">
-        <v>70.646543624858751</v>
+        <v>75</v>
       </c>
       <c r="M26">
-        <v>8.5491300316384198</v>
+        <v>77.225940000000008</v>
       </c>
       <c r="N26">
-        <v>157.17295067917092</v>
+        <v>3.4635492203389844</v>
       </c>
       <c r="O26">
-        <v>1936.8869218050793</v>
+        <v>149</v>
       </c>
       <c r="P26">
-        <v>393.69075116890622</v>
+        <v>1257.8337177307303</v>
       </c>
       <c r="Q26">
-        <v>228.86711183155978</v>
+        <v>219.19989092354032</v>
       </c>
       <c r="R26">
-        <v>2101.7105611424258</v>
+        <v>134.89638723970515</v>
       </c>
       <c r="S26">
-        <v>264.14</v>
+        <v>1342.1372214145656</v>
       </c>
       <c r="T26">
-        <v>1.6379661016949152</v>
+        <v>180</v>
       </c>
       <c r="U26">
-        <v>35.108368644067795</v>
+        <v>2.1594279661016946</v>
       </c>
       <c r="V26">
-        <v>0.72536175989328211</v>
+        <v>25.133333333333329</v>
       </c>
       <c r="W26">
-        <v>114.35547162162162</v>
+        <v>1E-3</v>
       </c>
       <c r="X26">
-        <v>2348.6650500000001</v>
+        <v>95.53875523230775</v>
       </c>
       <c r="Y26">
-        <v>6957.2080327695403</v>
+        <v>2227.1257799999998</v>
       </c>
       <c r="Z26">
         <v>6927.619262125274</v>
@@ -2304,81 +1975,81 @@
         <v>0.93026199999985693</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
-        <v>7437.5769126235518</v>
+        <v>1982</v>
       </c>
       <c r="B27">
-        <v>7238.2931063291599</v>
+        <v>5860.1681018650088</v>
       </c>
       <c r="C27">
-        <v>4492.8368706235524</v>
+        <v>6006.8883396999772</v>
       </c>
       <c r="D27">
-        <v>459.24708025535909</v>
+        <v>2940.1146813169398</v>
       </c>
       <c r="E27">
-        <v>658.53088654975033</v>
+        <v>359.3365101558893</v>
       </c>
       <c r="F27">
-        <v>4293.5530643291604</v>
+        <v>212.0405451932377</v>
       </c>
       <c r="G27">
-        <v>1960.9500736553628</v>
+        <v>3086.8349191519083</v>
       </c>
       <c r="H27">
-        <v>36.616371080139366</v>
+        <v>1407.1114982578397</v>
       </c>
       <c r="I27">
-        <v>164.11149825783971</v>
+        <v>36.759581881533101</v>
       </c>
       <c r="J27">
-        <v>1833.4549464776624</v>
+        <v>64.285714285714278</v>
       </c>
       <c r="K27">
-        <v>88.94707220416042</v>
+        <v>1379.5853658536585</v>
       </c>
       <c r="L27">
-        <v>60.010789708474576</v>
+        <v>95</v>
       </c>
       <c r="M27">
-        <v>11.303484103954805</v>
+        <v>97.369152890395483</v>
       </c>
       <c r="N27">
-        <v>137.65437780868018</v>
+        <v>2.7934257627118653</v>
       </c>
       <c r="O27">
-        <v>1964.3993772453236</v>
+        <v>189</v>
       </c>
       <c r="P27">
-        <v>361.35424040027215</v>
+        <v>1236.0513822116425</v>
       </c>
       <c r="Q27">
-        <v>263.54555666925069</v>
+        <v>222.28055080768954</v>
       </c>
       <c r="R27">
-        <v>2062.2080609763452</v>
+        <v>130.05960429735396</v>
       </c>
       <c r="S27">
-        <v>258.97000000000003</v>
+        <v>1328.2723287219781</v>
       </c>
       <c r="T27">
-        <v>0.95974576271186429</v>
+        <v>187.05</v>
       </c>
       <c r="U27">
-        <v>45.316348870056494</v>
+        <v>2.9272245762711862</v>
       </c>
       <c r="V27">
-        <v>0.30593330376114186</v>
+        <v>14.901800847457626</v>
       </c>
       <c r="W27">
-        <v>174.25399864864863</v>
+        <v>1E-3</v>
       </c>
       <c r="X27">
-        <v>2944.7400419999999</v>
+        <v>77.06002928324439</v>
       </c>
       <c r="Y27">
-        <v>7437.5769126235518</v>
+        <v>2920.0534205480685</v>
       </c>
       <c r="Z27">
         <v>7239.2451263291605</v>
@@ -2387,81 +2058,81 @@
         <v>0.95202000000062981</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
-        <v>7025.1956084740987</v>
+        <v>1983</v>
       </c>
       <c r="B28">
-        <v>6794.7483055219554</v>
+        <v>6166.4096751346551</v>
       </c>
       <c r="C28">
-        <v>4717.0247834740985</v>
+        <v>6373.1088410188604</v>
       </c>
       <c r="D28">
-        <v>511.57854553620092</v>
+        <v>3364.1003441248149</v>
       </c>
       <c r="E28">
-        <v>742.02584848834363</v>
+        <v>467.26391237769849</v>
       </c>
       <c r="F28">
-        <v>4486.5774805219553</v>
+        <v>260.11210582343716</v>
       </c>
       <c r="G28">
-        <v>2002.8106864111498</v>
+        <v>3570.7995100090202</v>
       </c>
       <c r="H28">
-        <v>45.272324041811842</v>
+        <v>1543.1126212165736</v>
       </c>
       <c r="I28">
-        <v>172.4738675958188</v>
+        <v>45.383275261324037</v>
       </c>
       <c r="J28">
-        <v>1875.6091428571431</v>
+        <v>86.236933797909401</v>
       </c>
       <c r="K28">
-        <v>85.327245687150864</v>
+        <v>1502.2589626799884</v>
       </c>
       <c r="L28">
-        <v>70.996469541242931</v>
+        <v>104</v>
       </c>
       <c r="M28">
-        <v>14.79852523841808</v>
+        <v>140.38557909378534</v>
       </c>
       <c r="N28">
-        <v>141.5251899899757</v>
+        <v>2.9329384237288143</v>
       </c>
       <c r="O28">
-        <v>2080.2906977798293</v>
+        <v>241</v>
       </c>
       <c r="P28">
-        <v>393.15616695775736</v>
+        <v>1503.3511762980718</v>
       </c>
       <c r="Q28">
-        <v>292.85730205813786</v>
+        <v>277.88961310733487</v>
       </c>
       <c r="R28">
-        <v>2180.5895626794486</v>
+        <v>153.10568699162945</v>
       </c>
       <c r="S28">
-        <v>286.7</v>
+        <v>1628.1351024137773</v>
       </c>
       <c r="T28">
-        <v>1.0557203389830507</v>
+        <v>195.8</v>
       </c>
       <c r="U28">
-        <v>35.830614406779659</v>
+        <v>3.6054449152542367</v>
       </c>
       <c r="V28">
-        <v>1.0978646564056764</v>
+        <v>17.836546610169492</v>
       </c>
       <c r="W28">
-        <v>226.06553918918917</v>
+        <v>1E-3</v>
       </c>
       <c r="X28">
-        <v>2308.1708250000001</v>
+        <v>67.737509072040623</v>
       </c>
       <c r="Y28">
-        <v>7025.1956084740987</v>
+        <v>2802.3093310098402</v>
       </c>
       <c r="Z28">
         <v>6795.7648255219556</v>
@@ -2470,81 +2141,81 @@
         <v>1.0165199999992183</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
-        <v>6900.7406358555718</v>
+        <v>1984</v>
       </c>
       <c r="B29">
-        <v>6769.6317821515349</v>
+        <v>6642.937767735817</v>
       </c>
       <c r="C29">
-        <v>4921.3829178555716</v>
+        <v>6899.2794495725793</v>
       </c>
       <c r="D29">
-        <v>582.40144884868641</v>
+        <v>3652.2378934648118</v>
       </c>
       <c r="E29">
-        <v>713.51030255272417</v>
+        <v>511.3345115998797</v>
       </c>
       <c r="F29">
-        <v>4790.2740641515347</v>
+        <v>255.70030734955748</v>
       </c>
       <c r="G29">
-        <v>2141.765644599303</v>
+        <v>3908.5795753015741</v>
       </c>
       <c r="H29">
-        <v>54.612811846689887</v>
+        <v>1775.3473692707141</v>
       </c>
       <c r="I29">
-        <v>182.40418118466897</v>
+        <v>57.090592334494772</v>
       </c>
       <c r="J29">
-        <v>2013.974275261324</v>
+        <v>91.637630662020896</v>
       </c>
       <c r="K29">
-        <v>88.982853144188468</v>
+        <v>1740.8003309431879</v>
       </c>
       <c r="L29">
-        <v>71.140027744632761</v>
+        <v>103</v>
       </c>
       <c r="M29">
-        <v>12.601865972881358</v>
+        <v>124.6507802305085</v>
       </c>
       <c r="N29">
-        <v>147.52101491593984</v>
+        <v>2.3582578169491528</v>
       </c>
       <c r="O29">
-        <v>2161.5959558732652</v>
+        <v>226</v>
       </c>
       <c r="P29">
-        <v>454.23438949717354</v>
+        <v>1549.057190860764</v>
       </c>
       <c r="Q29">
-        <v>281.33579115635865</v>
+        <v>324.7784144586052</v>
       </c>
       <c r="R29">
-        <v>2334.4945542140804</v>
+        <v>141.62108553725409</v>
       </c>
       <c r="S29">
-        <v>291.87</v>
+        <v>1732.2145197821151</v>
       </c>
       <c r="T29">
-        <v>1.3116525423728813</v>
+        <v>204.75</v>
       </c>
       <c r="U29">
-        <v>37.927048022598875</v>
+        <v>4.8147245762711863</v>
       </c>
       <c r="V29">
-        <v>1.1025672178174635</v>
+        <v>20.083333333333332</v>
       </c>
       <c r="W29">
-        <v>199.24141621621624</v>
+        <v>1E-3</v>
       </c>
       <c r="X29">
-        <v>1979.357718</v>
+        <v>62.647098227184529</v>
       </c>
       <c r="Y29">
-        <v>6900.7406358555718</v>
+        <v>2990.6998742710057</v>
       </c>
       <c r="Z29">
         <v>6770.4522221515344</v>
@@ -2553,81 +2224,81 @@
         <v>0.82043999999950756</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
-        <v>6738.1653477953432</v>
+        <v>1985</v>
       </c>
       <c r="B30">
-        <v>6595.7586344285392</v>
+        <v>6520.797792978934</v>
       </c>
       <c r="C30">
-        <v>4955.6095632953429</v>
+        <v>6850.3666106938726</v>
       </c>
       <c r="D30">
-        <v>618.01590939265691</v>
+        <v>3671.3908261538031</v>
       </c>
       <c r="E30">
-        <v>760.42262275946166</v>
+        <v>573.35246970866456</v>
       </c>
       <c r="F30">
-        <v>4813.2028499285389</v>
+        <v>243.78365199372649</v>
       </c>
       <c r="G30">
-        <v>2168.2603991747201</v>
+        <v>4000.9596438687413</v>
       </c>
       <c r="H30">
-        <v>64.329562717770031</v>
+        <v>1691.26724379905</v>
       </c>
       <c r="I30">
-        <v>193.20557491289199</v>
+        <v>63.344947735191639</v>
       </c>
       <c r="J30">
-        <v>2039.384386979598</v>
+        <v>70.731707317073173</v>
       </c>
       <c r="K30">
-        <v>100.63796303157146</v>
+        <v>1683.8804842171685</v>
       </c>
       <c r="L30">
-        <v>66.503680000000017</v>
+        <v>92.925354000000027</v>
       </c>
       <c r="M30">
-        <v>11.300814000000001</v>
+        <v>148.66524069152541</v>
       </c>
       <c r="N30">
-        <v>155.84082903157147</v>
+        <v>2.579628338983051</v>
       </c>
       <c r="O30">
-        <v>2240.1149895834778</v>
+        <v>239.0109663525424</v>
       </c>
       <c r="P30">
-        <v>479.90170876295713</v>
+        <v>1660.1615758123801</v>
       </c>
       <c r="Q30">
-        <v>297.79002234099636</v>
+        <v>356.79948467177798</v>
       </c>
       <c r="R30">
-        <v>2422.2266760054385</v>
+        <v>152.68566379529739</v>
       </c>
       <c r="S30">
-        <v>188.47</v>
+        <v>1864.2753966888606</v>
       </c>
       <c r="T30">
-        <v>2.5625211864406774</v>
+        <v>209.25</v>
       </c>
       <c r="U30">
-        <v>42.203672316384178</v>
+        <v>4.542796610169491</v>
       </c>
       <c r="V30">
-        <v>4.7184367254890782</v>
+        <v>17.786652542372881</v>
       </c>
       <c r="W30">
-        <v>215.92253918918917</v>
+        <v>1E-3</v>
       </c>
       <c r="X30">
-        <v>1782.5557845000001</v>
+        <v>62.454054642052895</v>
       </c>
       <c r="Y30">
-        <v>6738.1653477953432</v>
+        <v>2849.4069668251313</v>
       </c>
       <c r="Z30">
         <v>6596.5248944285395</v>
@@ -2636,81 +2307,81 @@
         <v>0.76626000000032946</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
-        <v>7085.6335812623111</v>
+        <v>1986</v>
       </c>
       <c r="B31">
-        <v>6940.9289367787142</v>
+        <v>6967.11275099867</v>
       </c>
       <c r="C31">
-        <v>5287.5885812623101</v>
+        <v>7253.7670869047233</v>
       </c>
       <c r="D31">
-        <v>704.9923700260448</v>
+        <v>4052.8774247986703</v>
       </c>
       <c r="E31">
-        <v>849.69701450964135</v>
+        <v>596.88329791755632</v>
       </c>
       <c r="F31">
-        <v>5142.8839367787141</v>
+        <v>310.22896201150223</v>
       </c>
       <c r="G31">
-        <v>2211.7128504915272</v>
+        <v>4339.5317607047236</v>
       </c>
       <c r="H31">
-        <v>61.725181598062953</v>
+        <v>1846.2613240418118</v>
       </c>
       <c r="I31">
-        <v>184.19299592511666</v>
+        <v>60.435540069686404</v>
       </c>
       <c r="J31">
-        <v>2089.2450361644737</v>
+        <v>91.114982578397203</v>
       </c>
       <c r="K31">
-        <v>107.27598505154641</v>
+        <v>1815.5818815331008</v>
       </c>
       <c r="L31">
-        <v>75.74348111864407</v>
+        <v>96.364996000000033</v>
       </c>
       <c r="M31">
-        <v>11.515363706214691</v>
+        <v>151.7086311661017</v>
       </c>
       <c r="N31">
-        <v>171.50410246397578</v>
+        <v>3.7647777310734472</v>
       </c>
       <c r="O31">
-        <v>2498.5472717384764</v>
+        <v>244.30884943502829</v>
       </c>
       <c r="P31">
-        <v>558.8246736255187</v>
+        <v>1869.4101443048808</v>
       </c>
       <c r="Q31">
-        <v>365.82618089754976</v>
+        <v>380.51464574956481</v>
       </c>
       <c r="R31">
-        <v>2691.5457644664452</v>
+        <v>193.00824125005414</v>
       </c>
       <c r="S31">
-        <v>181.89</v>
+        <v>2056.9165488043914</v>
       </c>
       <c r="T31">
-        <v>4.1365819209039545</v>
+        <v>218.5</v>
       </c>
       <c r="U31">
-        <v>42.852648305084742</v>
+        <v>4.2244809322033898</v>
       </c>
       <c r="V31">
-        <v>4.5624517629151269</v>
+        <v>22.340960451977406</v>
       </c>
       <c r="W31">
-        <v>245.30982567567565</v>
+        <v>1E-3</v>
       </c>
       <c r="X31">
-        <v>1798.0450000000001</v>
+        <v>65.426925853080277</v>
       </c>
       <c r="Y31">
-        <v>7085.6335812623111</v>
+        <v>2914.2353261999997</v>
       </c>
       <c r="Z31">
         <v>6941.7615267787141</v>
@@ -2719,81 +2390,81 @@
         <v>0.83259000000180095</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
-        <v>6794.5974511680943</v>
+        <v>1987</v>
       </c>
       <c r="B32">
-        <v>6574.7593075825989</v>
+        <v>6565.5185734726792</v>
       </c>
       <c r="C32">
-        <v>5185.5562511680937</v>
+        <v>6867.5639188955302</v>
       </c>
       <c r="D32">
-        <v>673.68007559420857</v>
+        <v>4149.4098561482288</v>
       </c>
       <c r="E32">
-        <v>893.51821917970335</v>
+        <v>649.40884606665986</v>
       </c>
       <c r="F32">
-        <v>4965.7181075825993</v>
+        <v>347.36350064380935</v>
       </c>
       <c r="G32">
-        <v>2183.427619495109</v>
+        <v>4451.4552015710797</v>
       </c>
       <c r="H32">
-        <v>65.649988188743862</v>
+        <v>1981.9951219512193</v>
       </c>
       <c r="I32">
-        <v>189.84999704718598</v>
+        <v>89.041811846689896</v>
       </c>
       <c r="J32">
-        <v>2059.2276106366671</v>
+        <v>129.61672473867594</v>
       </c>
       <c r="K32">
-        <v>105.32324666666668</v>
+        <v>1941.4202090592332</v>
       </c>
       <c r="L32">
-        <v>67.411657319774008</v>
+        <v>102.01219800000003</v>
       </c>
       <c r="M32">
-        <v>11.430630210169491</v>
+        <v>178.52060165875707</v>
       </c>
       <c r="N32">
-        <v>161.3042737762712</v>
+        <v>3.8541675355932217</v>
       </c>
       <c r="O32">
-        <v>2400.7431937328415</v>
+        <v>276.67863212316388</v>
       </c>
       <c r="P32">
-        <v>530.12426909842316</v>
+        <v>1823.7211802648055</v>
       </c>
       <c r="Q32">
-        <v>356.91540064887101</v>
+        <v>379.63261900189087</v>
       </c>
       <c r="R32">
-        <v>2573.9520621823935</v>
+        <v>190.01125243733676</v>
       </c>
       <c r="S32">
-        <v>160.74</v>
+        <v>2013.3425468293599</v>
       </c>
       <c r="T32">
-        <v>5.0294844632768365</v>
+        <v>217.8</v>
       </c>
       <c r="U32">
-        <v>40.517266949152535</v>
+        <v>2.2138135593220336</v>
       </c>
       <c r="V32">
-        <v>5.46467652399072</v>
+        <v>23.881355932203391</v>
       </c>
       <c r="W32">
-        <v>294.80492432432436</v>
+        <v>1E-3</v>
       </c>
       <c r="X32">
-        <v>1609.0412000000001</v>
+        <v>68.607690155787907</v>
       </c>
       <c r="Y32">
-        <v>6794.5974511680943</v>
+        <v>2416.1087173244505</v>
       </c>
       <c r="Z32">
         <v>6575.1612475825987</v>
@@ -2802,81 +2473,81 @@
         <v>0.40193999999974039</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33">
       <c r="A33">
-        <v>6743.2741282615598</v>
+        <v>1988</v>
       </c>
       <c r="B33">
-        <v>6563.9863990241756</v>
+        <v>6722.3609515488952</v>
       </c>
       <c r="C33">
-        <v>5321.5641282615597</v>
+        <v>6865.8182403777937</v>
       </c>
       <c r="D33">
-        <v>755.9124789203637</v>
+        <v>4329.8010521320912</v>
       </c>
       <c r="E33">
-        <v>935.20020815774888</v>
+        <v>595.31813862636136</v>
       </c>
       <c r="F33">
-        <v>5142.2763990241756</v>
+        <v>451.86084979746289</v>
       </c>
       <c r="G33">
-        <v>2216.5262361405203</v>
+        <v>4473.2583409609888</v>
       </c>
       <c r="H33">
-        <v>78.607526722966981</v>
+        <v>2064.0703832752611</v>
       </c>
       <c r="I33">
-        <v>213.30685643418178</v>
+        <v>53.10038153310105</v>
       </c>
       <c r="J33">
-        <v>2081.8269064293054</v>
+        <v>208.18815331010452</v>
       </c>
       <c r="K33">
-        <v>108.60013733333335</v>
+        <v>1908.9826114982575</v>
       </c>
       <c r="L33">
-        <v>79.086652822598879</v>
+        <v>101.11328000000003</v>
       </c>
       <c r="M33">
-        <v>11.792121264406781</v>
+        <v>150.34210544406778</v>
       </c>
       <c r="N33">
-        <v>175.89466889152544</v>
+        <v>6.0973357401129959</v>
       </c>
       <c r="O33">
-        <v>2512.4935424881187</v>
+        <v>245.3580497039548</v>
       </c>
       <c r="P33">
-        <v>588.9453284366823</v>
+        <v>1892.331124732536</v>
       </c>
       <c r="Q33">
-        <v>381.25701815957262</v>
+        <v>389.92416859834498</v>
       </c>
       <c r="R33">
-        <v>2720.1818527652285</v>
+        <v>204.98909662295162</v>
       </c>
       <c r="S33">
-        <v>155.1</v>
+        <v>2077.2661967079289</v>
       </c>
       <c r="T33">
-        <v>6.9531073446327678</v>
+        <v>239.7</v>
       </c>
       <c r="U33">
-        <v>51.186440677966097</v>
+        <v>1.9514830508474577</v>
       </c>
       <c r="V33">
-        <v>2.3198635934827769</v>
+        <v>32.586264124293784</v>
       </c>
       <c r="W33">
-        <v>277.65777162162163</v>
+        <v>1E-3</v>
       </c>
       <c r="X33">
-        <v>1421.71</v>
+        <v>94.383463622827563</v>
       </c>
       <c r="Y33">
-        <v>6743.2741282615598</v>
+        <v>2392.5598994168045</v>
       </c>
       <c r="Z33">
         <v>6564.4777381597687</v>
@@ -2885,81 +2556,81 @@
         <v>0.49133913559126086</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33">
       <c r="A34">
-        <v>6580.4486614105035</v>
+        <v>1989</v>
       </c>
       <c r="B34">
-        <v>6559.3489852239054</v>
+        <v>6861.2776710750595</v>
       </c>
       <c r="C34">
-        <v>5258.7171574105032</v>
+        <v>6878.766778766586</v>
       </c>
       <c r="D34">
-        <v>815.88035192801101</v>
+        <v>4553.1068460750594</v>
       </c>
       <c r="E34">
-        <v>836.98002811460879</v>
+        <v>547.75842086097373</v>
       </c>
       <c r="F34">
-        <v>5237.6174812239051</v>
+        <v>530.26931316944763</v>
       </c>
       <c r="G34">
-        <v>2226.4126314247878</v>
+        <v>4570.5959537665858</v>
       </c>
       <c r="H34">
-        <v>95.610199019665714</v>
+        <v>2118.0384320557491</v>
       </c>
       <c r="I34">
-        <v>184.70331601015766</v>
+        <v>60.871891986062714</v>
       </c>
       <c r="J34">
-        <v>2137.3195144342958</v>
+        <v>150.34843205574913</v>
       </c>
       <c r="K34">
-        <v>112.105178</v>
+        <v>2028.5618919860626</v>
       </c>
       <c r="L34">
-        <v>88.092262901694923</v>
+        <v>96.682850913724593</v>
       </c>
       <c r="M34">
-        <v>8.8928271548022586</v>
+        <v>84.750979810169483</v>
       </c>
       <c r="N34">
-        <v>191.30461374689264</v>
+        <v>7.0240962169491539</v>
       </c>
       <c r="O34">
-        <v>2459.0784149463198</v>
+        <v>174.40973450694491</v>
       </c>
       <c r="P34">
-        <v>624</v>
+        <v>1925.9986612808798</v>
       </c>
       <c r="Q34">
-        <v>325.61295191025351</v>
+        <v>394.51027848608692</v>
       </c>
       <c r="R34">
-        <v>2757.4654630360665</v>
+        <v>221.35988307204323</v>
       </c>
       <c r="S34">
-        <v>143.35</v>
+        <v>2099.1490566949233</v>
       </c>
       <c r="T34">
-        <v>6.1347104519774005</v>
+        <v>260.85000000000002</v>
       </c>
       <c r="U34">
-        <v>53.031779661016948</v>
+        <v>2.9432203389830507</v>
       </c>
       <c r="V34">
-        <v>2.0431795546729616</v>
+        <v>34.124823446327682</v>
       </c>
       <c r="W34">
-        <v>264.73915337837843</v>
+        <v>4.6820502396716357</v>
       </c>
       <c r="X34">
-        <v>1321.7315040000001</v>
+        <v>117.41207837837838</v>
       </c>
       <c r="Y34">
-        <v>6580.4486614105035</v>
+        <v>2308.1708250000001</v>
       </c>
       <c r="Z34">
         <v>6559.3489852239054</v>
@@ -2968,81 +2639,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33">
       <c r="A35">
-        <v>6570.6024207314722</v>
+        <v>1990</v>
       </c>
       <c r="B35">
-        <v>6610.8073500165929</v>
+        <v>6957.2080327695403</v>
       </c>
       <c r="C35">
-        <v>5254.540108231472</v>
+        <v>6926.6890001252741</v>
       </c>
       <c r="D35">
-        <v>882.32397571861827</v>
+        <v>4608.5429827695407</v>
       </c>
       <c r="E35">
-        <v>842.11904643349726</v>
+        <v>507.05791359611976</v>
       </c>
       <c r="F35">
-        <v>5294.7450375165927</v>
+        <v>537.57694624038584</v>
       </c>
       <c r="G35">
-        <v>2260.7988235078751</v>
+        <v>4578.0239501252745</v>
       </c>
       <c r="H35">
-        <v>117.81240772456151</v>
+        <v>2162.9766836128215</v>
       </c>
       <c r="I35">
-        <v>205.93545148526545</v>
+        <v>40.357290940766546</v>
       </c>
       <c r="J35">
-        <v>2172.6757797471714</v>
+        <v>150.69686411149826</v>
       </c>
       <c r="K35">
-        <v>115.70509666666668</v>
+        <v>2052.63711044209</v>
       </c>
       <c r="L35">
-        <v>97.775597615819194</v>
+        <v>95.075537085950586</v>
       </c>
       <c r="M35">
-        <v>8.7336673220338987</v>
+        <v>70.646543624858751</v>
       </c>
       <c r="N35">
-        <v>204.74702696045196</v>
+        <v>8.5491300316384198</v>
       </c>
       <c r="O35">
-        <v>2415.8390190005857</v>
+        <v>157.17295067917092</v>
       </c>
       <c r="P35">
-        <v>660.0492843185541</v>
+        <v>1936.8869218050793</v>
       </c>
       <c r="Q35">
-        <v>305.31275856985343</v>
+        <v>393.69075116890622</v>
       </c>
       <c r="R35">
-        <v>2770.5755447492861</v>
+        <v>228.86711183155978</v>
       </c>
       <c r="S35">
-        <v>140.06</v>
+        <v>2101.7105611424258</v>
       </c>
       <c r="T35">
-        <v>6.3933262711864405</v>
+        <v>264.14</v>
       </c>
       <c r="U35">
-        <v>59.680190677966095</v>
+        <v>1.6379661016949152</v>
       </c>
       <c r="V35">
-        <v>0.29335978849700256</v>
+        <v>35.108368644067795</v>
       </c>
       <c r="W35">
-        <v>262.45697837837838</v>
+        <v>0.72536175989328211</v>
       </c>
       <c r="X35">
-        <v>1316.0623125</v>
+        <v>114.35547162162162</v>
       </c>
       <c r="Y35">
-        <v>6570.6024207314722</v>
+        <v>2348.6650500000001</v>
       </c>
       <c r="Z35">
         <v>6610.8073500165929</v>
@@ -3051,81 +2722,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33">
       <c r="A36">
-        <v>6514.4697513783294</v>
+        <v>1991</v>
       </c>
       <c r="B36">
-        <v>6591.6047274558387</v>
+        <v>7437.5769126235518</v>
       </c>
       <c r="C36">
-        <v>5200.8370923783295</v>
+        <v>7238.2931063291599</v>
       </c>
       <c r="D36">
-        <v>946.28986615199415</v>
+        <v>4492.8368706235524</v>
       </c>
       <c r="E36">
-        <v>869.15489007448514</v>
+        <v>459.24708025535909</v>
       </c>
       <c r="F36">
-        <v>5277.9720684558388</v>
+        <v>658.53088654975033</v>
       </c>
       <c r="G36">
-        <v>2203.4351191637629</v>
+        <v>4293.5530643291604</v>
       </c>
       <c r="H36">
-        <v>138.44947735191639</v>
+        <v>1960.9500736553628</v>
       </c>
       <c r="I36">
-        <v>226.48083623693378</v>
+        <v>36.616371080139366</v>
       </c>
       <c r="J36">
-        <v>2115.4037602787457</v>
+        <v>164.11149825783971</v>
       </c>
       <c r="K36">
-        <v>123.61711400000002</v>
+        <v>1833.4549464776624</v>
       </c>
       <c r="L36">
-        <v>96.04555911864405</v>
+        <v>88.94707220416042</v>
       </c>
       <c r="M36">
-        <v>7.7513592372881366</v>
+        <v>60.010789708474576</v>
       </c>
       <c r="N36">
-        <v>211.91131388135594</v>
+        <v>11.303484103954805</v>
       </c>
       <c r="O36">
-        <v>2415.205939723041</v>
+        <v>137.65437780868018</v>
       </c>
       <c r="P36">
-        <v>701.40121878144112</v>
+        <v>1964.3993772453236</v>
       </c>
       <c r="Q36">
-        <v>317.34377510873776</v>
+        <v>361.35424040027215</v>
       </c>
       <c r="R36">
-        <v>2799.2633833957443</v>
+        <v>263.54555666925069</v>
       </c>
       <c r="S36">
-        <v>141</v>
+        <v>2062.2080609763452</v>
       </c>
       <c r="T36">
-        <v>9.4649717514124294</v>
+        <v>258.97000000000003</v>
       </c>
       <c r="U36">
-        <v>91.578919491525426</v>
+        <v>0.95974576271186429</v>
       </c>
       <c r="V36">
-        <v>0.92863914858009766</v>
+        <v>45.316348870056494</v>
       </c>
       <c r="W36">
-        <v>226</v>
+        <v>0.30593330376114186</v>
       </c>
       <c r="X36">
-        <v>1313.6326590000001</v>
+        <v>174.25399864864863</v>
       </c>
       <c r="Y36">
-        <v>6514.4697513783294</v>
+        <v>2944.7400419999999</v>
       </c>
       <c r="Z36">
         <v>6591.6047274558387</v>
@@ -3146,81 +2817,81 @@
         <v>7.7006660939999998</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33">
       <c r="A37">
-        <v>6169.3882865868309</v>
+        <v>1992</v>
       </c>
       <c r="B37">
-        <v>6335.9514460263872</v>
+        <v>7025.1956084740987</v>
       </c>
       <c r="C37">
-        <v>4856.5655120868305</v>
+        <v>6794.7483055219554</v>
       </c>
       <c r="D37">
-        <v>932.02629957880401</v>
+        <v>4717.0247834740985</v>
       </c>
       <c r="E37">
-        <v>765.463140139247</v>
+        <v>511.57854553620092</v>
       </c>
       <c r="F37">
-        <v>5023.1286715263868</v>
+        <v>742.02584848834363</v>
       </c>
       <c r="G37">
-        <v>2070.3340738675956</v>
+        <v>4486.5774805219553</v>
       </c>
       <c r="H37">
-        <v>112.47386759581882</v>
+        <v>2002.8106864111498</v>
       </c>
       <c r="I37">
-        <v>212.80487804878047</v>
+        <v>45.272324041811842</v>
       </c>
       <c r="J37">
-        <v>1970.003063414634</v>
+        <v>172.4738675958188</v>
       </c>
       <c r="K37">
-        <v>148.88649299999997</v>
+        <v>1875.6091428571431</v>
       </c>
       <c r="L37">
-        <v>102.76622096610168</v>
+        <v>85.327245687150864</v>
       </c>
       <c r="M37">
-        <v>7.9903592881355925</v>
+        <v>70.996469541242931</v>
       </c>
       <c r="N37">
-        <v>243.66235467796608</v>
+        <v>14.79852523841808</v>
       </c>
       <c r="O37">
-        <v>2350.2780691189896</v>
+        <v>141.5251899899757</v>
       </c>
       <c r="P37">
-        <v>706.98385963434794</v>
+        <v>2080.2906977798293</v>
       </c>
       <c r="Q37">
-        <v>305.15102670208671</v>
+        <v>393.15616695775736</v>
       </c>
       <c r="R37">
-        <v>2752.1109020512508</v>
+        <v>292.85730205813786</v>
       </c>
       <c r="S37">
-        <v>47.55</v>
+        <v>2180.5895626794486</v>
       </c>
       <c r="T37">
-        <v>9.5736935028248578</v>
+        <v>286.7</v>
       </c>
       <c r="U37">
-        <v>95.684887005649713</v>
+        <v>1.0557203389830507</v>
       </c>
       <c r="V37">
-        <v>0.22865787971071502</v>
+        <v>35.830614406779659</v>
       </c>
       <c r="W37">
-        <v>143.8319890945946</v>
+        <v>1.0978646564056764</v>
       </c>
       <c r="X37">
-        <v>1312.8227744999999</v>
+        <v>226.06553918918917</v>
       </c>
       <c r="Y37">
-        <v>6169.3882865868309</v>
+        <v>2308.1708250000001</v>
       </c>
       <c r="Z37">
         <v>6335.9514460263872</v>
@@ -3241,81 +2912,81 @@
         <v>9.6258343830000008</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33">
       <c r="A38">
-        <v>5993.1882478757934</v>
+        <v>1993</v>
       </c>
       <c r="B38">
-        <v>6240.2265429462759</v>
+        <v>6900.7406358555718</v>
       </c>
       <c r="C38">
-        <v>4762.1638078757933</v>
+        <v>6769.6317821515349</v>
       </c>
       <c r="D38">
-        <v>974.14676195719619</v>
+        <v>4921.3829178555716</v>
       </c>
       <c r="E38">
-        <v>727.10846688671336</v>
+        <v>582.40144884868641</v>
       </c>
       <c r="F38">
-        <v>5009.2021029462758</v>
+        <v>713.51030255272417</v>
       </c>
       <c r="G38">
-        <v>2055.6999275261323</v>
+        <v>4790.2740641515347</v>
       </c>
       <c r="H38">
-        <v>128.65853658536585</v>
+        <v>2141.765644599303</v>
       </c>
       <c r="I38">
-        <v>212.42160278745644</v>
+        <v>54.612811846689887</v>
       </c>
       <c r="J38">
-        <v>1971.9368613240417</v>
+        <v>182.40418118466897</v>
       </c>
       <c r="K38">
-        <v>119.863045</v>
+        <v>2013.974275261324</v>
       </c>
       <c r="L38">
-        <v>127.47882799999999</v>
+        <v>88.982853144188468</v>
       </c>
       <c r="M38">
-        <v>7.6067638644067808</v>
+        <v>71.140027744632761</v>
       </c>
       <c r="N38">
-        <v>239.73510913559321</v>
+        <v>12.601865972881358</v>
       </c>
       <c r="O38">
-        <v>2352.9126521860862</v>
+        <v>147.52101491593984</v>
       </c>
       <c r="P38">
-        <v>705.19386903835789</v>
+        <v>2161.5959558732652</v>
       </c>
       <c r="Q38">
-        <v>321.39191707127554</v>
+        <v>454.23438949717354</v>
       </c>
       <c r="R38">
-        <v>2736.7146041531682</v>
+        <v>281.33579115635865</v>
       </c>
       <c r="S38">
-        <v>48</v>
+        <v>2334.4945542140804</v>
       </c>
       <c r="T38">
-        <v>11.314477401129942</v>
+        <v>291.87</v>
       </c>
       <c r="U38">
-        <v>109.33997175141242</v>
+        <v>1.3116525423728813</v>
       </c>
       <c r="V38">
-        <v>1.5010509323424961</v>
+        <v>37.927048022598875</v>
       </c>
       <c r="W38">
-        <v>76.348211412162158</v>
+        <v>1.1025672178174635</v>
       </c>
       <c r="X38">
-        <v>1231.0244399999999</v>
+        <v>199.24141621621624</v>
       </c>
       <c r="Y38">
-        <v>5993.1882478757934</v>
+        <v>1979.357718</v>
       </c>
       <c r="Z38">
         <v>6240.2265429462759</v>
@@ -3336,81 +3007,81 @@
         <v>9.9146101560000002</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33">
       <c r="A39">
-        <v>5506.8228975244656</v>
+        <v>1994</v>
       </c>
       <c r="B39">
-        <v>5915.743280308855</v>
+        <v>6738.1653477953432</v>
       </c>
       <c r="C39">
-        <v>4541.6397842308843</v>
+        <v>6595.7586344285392</v>
       </c>
       <c r="D39">
-        <v>1010.3947854036928</v>
+        <v>4955.6095632953429</v>
       </c>
       <c r="E39">
-        <v>601.47440261930456</v>
+        <v>618.01590939265691</v>
       </c>
       <c r="F39">
-        <v>4688.7682628088551</v>
+        <v>760.42262275946166</v>
       </c>
       <c r="G39">
-        <v>1837</v>
+        <v>4813.2028499285389</v>
       </c>
       <c r="H39">
-        <v>138.24041811846689</v>
+        <v>2168.2603991747201</v>
       </c>
       <c r="I39">
-        <v>202.19394082560677</v>
+        <v>64.329562717770031</v>
       </c>
       <c r="J39">
-        <v>1840.1784605681214</v>
+        <v>193.20557491289199</v>
       </c>
       <c r="K39">
-        <v>118.98301400000001</v>
+        <v>2039.384386979598</v>
       </c>
       <c r="L39">
-        <v>123.2251897220339</v>
+        <v>100.63796303157146</v>
       </c>
       <c r="M39">
-        <v>9.2392658440677984</v>
+        <v>66.503680000000017</v>
       </c>
       <c r="N39">
-        <v>232.96893787796611</v>
+        <v>11.300814000000001</v>
       </c>
       <c r="O39">
-        <v>1970</v>
+        <v>155.84082903157147</v>
       </c>
       <c r="P39">
-        <v>734.55192602553484</v>
+        <v>2240.1149895834778</v>
       </c>
       <c r="Q39">
-        <v>252.60117699589654</v>
+        <v>479.90170876295713</v>
       </c>
       <c r="R39">
-        <v>2451.7836128251106</v>
+        <v>297.79002234099636</v>
       </c>
       <c r="S39">
-        <v>149.46</v>
+        <v>2422.2266760054385</v>
       </c>
       <c r="T39">
-        <v>10.652789548022598</v>
+        <v>188.47</v>
       </c>
       <c r="U39">
-        <v>93.990148305084745</v>
+        <v>2.5625211864406774</v>
       </c>
       <c r="V39">
-        <v>3.7244619896345799</v>
+        <v>42.203672316384178</v>
       </c>
       <c r="W39">
-        <v>43.449870648648648</v>
+        <v>4.7184367254890782</v>
       </c>
       <c r="X39">
-        <v>1226.9750174999999</v>
+        <v>215.92253918918917</v>
       </c>
       <c r="Y39">
-        <v>5506.8228975244656</v>
+        <v>1782.5557845000001</v>
       </c>
       <c r="Z39">
         <v>5915.743280308855</v>
@@ -3431,81 +3102,81 @@
         <v>10.212047472000002</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33">
       <c r="A40">
-        <v>5731.0214651297138</v>
+        <v>1995</v>
       </c>
       <c r="B40">
-        <v>6200.1608471330746</v>
+        <v>7085.6335812623111</v>
       </c>
       <c r="C40">
-        <v>4718.9626238274477</v>
+        <v>6940.9289367787142</v>
       </c>
       <c r="D40">
-        <v>1126.9413695099508</v>
+        <v>5287.5885812623101</v>
       </c>
       <c r="E40">
-        <v>657.80198750658985</v>
+        <v>704.9923700260448</v>
       </c>
       <c r="F40">
-        <v>4952.9387171330745</v>
+        <v>849.69701450964135</v>
       </c>
       <c r="G40">
-        <v>1935</v>
+        <v>5142.8839367787141</v>
       </c>
       <c r="H40">
-        <v>173.27526132404182</v>
+        <v>2211.7128504915272</v>
       </c>
       <c r="I40">
-        <v>222.4207169432469</v>
+        <v>61.725181598062953</v>
       </c>
       <c r="J40">
-        <v>1994.1851339278335</v>
+        <v>184.19299592511666</v>
       </c>
       <c r="K40">
-        <v>124.559562</v>
+        <v>2089.2450361644737</v>
       </c>
       <c r="L40">
-        <v>178.10710385084747</v>
+        <v>107.27598505154641</v>
       </c>
       <c r="M40">
-        <v>11.67363963276836</v>
+        <v>75.74348111864407</v>
       </c>
       <c r="N40">
-        <v>290.99302621807914</v>
+        <v>11.515363706214691</v>
       </c>
       <c r="O40">
-        <v>2009</v>
+        <v>171.50410246397578</v>
       </c>
       <c r="P40">
-        <v>761.66004483640597</v>
+        <v>2498.5472717384764</v>
       </c>
       <c r="Q40">
-        <v>266.07513101318273</v>
+        <v>558.8246736255187</v>
       </c>
       <c r="R40">
-        <v>2504.4015974885065</v>
+        <v>365.82618089754976</v>
       </c>
       <c r="S40">
-        <v>149.46</v>
+        <v>2691.5457644664452</v>
       </c>
       <c r="T40">
-        <v>10.363700564971751</v>
+        <v>181.89</v>
       </c>
       <c r="U40">
-        <v>110.18820621468926</v>
+        <v>4.1365819209039545</v>
       </c>
       <c r="V40">
-        <v>3.535258933683751</v>
+        <v>42.852648305084742</v>
       </c>
       <c r="W40">
-        <v>47.444293702702701</v>
+        <v>4.5624517629151269</v>
       </c>
       <c r="X40">
-        <v>1247.2221300000001</v>
+        <v>245.30982567567565</v>
       </c>
       <c r="Y40">
-        <v>5731.0214651297138</v>
+        <v>1798.0450000000001</v>
       </c>
       <c r="Z40">
         <v>6200.1608471330746</v>
@@ -3526,81 +3197,81 @@
         <v>10.518407625</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33">
       <c r="A41">
-        <v>5712.44014538183</v>
+        <v>1996</v>
       </c>
       <c r="B41">
-        <v>6192.6366627436582</v>
+        <v>6794.5974511680943</v>
       </c>
       <c r="C41">
-        <v>4746.3408375806839</v>
+        <v>6574.7593075825989</v>
       </c>
       <c r="D41">
-        <v>1152.4210936636912</v>
+        <v>5185.5562511680937</v>
       </c>
       <c r="E41">
-        <v>672.22457630186511</v>
+        <v>673.68007559420857</v>
       </c>
       <c r="F41">
-        <v>4937.3156877436586</v>
+        <v>893.51821917970335</v>
       </c>
       <c r="G41">
-        <v>1953</v>
+        <v>4965.7181075825993</v>
       </c>
       <c r="H41">
-        <v>187.30435540069683</v>
+        <v>2183.427619495109</v>
       </c>
       <c r="I41">
-        <v>252.75349908462766</v>
+        <v>65.649988188743862</v>
       </c>
       <c r="J41">
-        <v>1956.4528744345359</v>
+        <v>189.84999704718598</v>
       </c>
       <c r="K41">
-        <v>124.702223</v>
+        <v>2059.2276106366671</v>
       </c>
       <c r="L41">
-        <v>176.14421161468928</v>
+        <v>105.32324666666668</v>
       </c>
       <c r="M41">
-        <v>10.975461363841807</v>
+        <v>67.411657319774008</v>
       </c>
       <c r="N41">
-        <v>289.8709732508475</v>
+        <v>11.430630210169491</v>
       </c>
       <c r="O41">
-        <v>2035</v>
+        <v>161.3042737762712</v>
       </c>
       <c r="P41">
-        <v>766.18868744191639</v>
+        <v>2400.7431937328415</v>
       </c>
       <c r="Q41">
-        <v>282.50070583644646</v>
+        <v>530.12426909842316</v>
       </c>
       <c r="R41">
-        <v>2518.7480008518851</v>
+        <v>356.91540064887101</v>
       </c>
       <c r="S41">
-        <v>149.46</v>
+        <v>2573.9520621823935</v>
       </c>
       <c r="T41">
-        <v>15.112994350282484</v>
+        <v>160.74</v>
       </c>
       <c r="U41">
-        <v>88.029661016949149</v>
+        <v>5.0294844632768365</v>
       </c>
       <c r="V41">
-        <v>7.6708448561062514</v>
+        <v>40.517266949152535</v>
       </c>
       <c r="W41">
-        <v>37.965249000000014</v>
+        <v>5.46467652399072</v>
       </c>
       <c r="X41">
-        <v>1255.3209750000001</v>
+        <v>294.80492432432436</v>
       </c>
       <c r="Y41">
-        <v>5712.44014538183</v>
+        <v>1609.0412000000001</v>
       </c>
       <c r="Z41">
         <v>6192.6366627436582</v>
@@ -3621,81 +3292,81 @@
         <v>10.833958970999999</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33">
       <c r="A42">
-        <v>5637.1259241412145</v>
+        <v>1997</v>
       </c>
       <c r="B42">
-        <v>6116.2577028478026</v>
+        <v>6743.2741282615598</v>
       </c>
       <c r="C42">
-        <v>4706.523374245513</v>
+        <v>6563.9863990241756</v>
       </c>
       <c r="D42">
-        <v>1086.7929280578187</v>
+        <v>5321.5641282615597</v>
       </c>
       <c r="E42">
-        <v>607.66114935123039</v>
+        <v>755.9124789203637</v>
       </c>
       <c r="F42">
-        <v>4856.8873053478028</v>
+        <v>935.20020815774888</v>
       </c>
       <c r="G42">
-        <v>1927</v>
+        <v>5142.2763990241756</v>
       </c>
       <c r="H42">
-        <v>157.76689895470383</v>
+        <v>2216.5262361405203</v>
       </c>
       <c r="I42">
-        <v>249.01219512195121</v>
+        <v>78.607526722966981</v>
       </c>
       <c r="J42">
-        <v>1907.3117742160275</v>
+        <v>213.30685643418178</v>
       </c>
       <c r="K42">
-        <v>113</v>
+        <v>2081.8269064293054</v>
       </c>
       <c r="L42">
-        <v>195.93807691751411</v>
+        <v>108.60013733333335</v>
       </c>
       <c r="M42">
-        <v>8.5138391581920931</v>
+        <v>79.086652822598879</v>
       </c>
       <c r="N42">
-        <v>303.11927175932203</v>
+        <v>11.792121264406781</v>
       </c>
       <c r="O42">
-        <v>2034</v>
+        <v>175.89466889152544</v>
       </c>
       <c r="P42">
-        <v>721.73708661835894</v>
+        <v>2512.4935424881187</v>
       </c>
       <c r="Q42">
-        <v>272.27494557956175</v>
+        <v>588.9453284366823</v>
       </c>
       <c r="R42">
-        <v>2484.7053938052122</v>
+        <v>381.25701815957262</v>
       </c>
       <c r="S42">
-        <v>150.39999999999998</v>
+        <v>2720.1818527652285</v>
       </c>
       <c r="T42">
-        <v>8.9101694915254228</v>
+        <v>155.1</v>
       </c>
       <c r="U42">
-        <v>77.873269774011291</v>
+        <v>6.9531073446327678</v>
       </c>
       <c r="V42">
-        <v>2.4406960757161373</v>
+        <v>51.186440677966097</v>
       </c>
       <c r="W42">
-        <v>45.551322060810804</v>
+        <v>2.3198635934827769</v>
       </c>
       <c r="X42">
-        <v>1259.3703975000001</v>
+        <v>277.65777162162163</v>
       </c>
       <c r="Y42">
-        <v>5637.1259241412145</v>
+        <v>1421.71</v>
       </c>
       <c r="Z42">
         <v>6116.2577028478026</v>
@@ -3716,81 +3387,81 @@
         <v>11.158976928</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33">
       <c r="A43">
-        <v>5700.237028100546</v>
+        <v>1998</v>
       </c>
       <c r="B43">
-        <v>6151.4422631666221</v>
+        <v>6580.4486614105035</v>
       </c>
       <c r="C43">
-        <v>4517.4347298463708</v>
+        <v>6559.3489852239054</v>
       </c>
       <c r="D43">
-        <v>1056.9471245606114</v>
+        <v>5258.7171574105032</v>
       </c>
       <c r="E43">
-        <v>605.74188949453435</v>
+        <v>815.88035192801101</v>
       </c>
       <c r="F43">
-        <v>4730.0949656666216</v>
+        <v>836.98002811460879</v>
       </c>
       <c r="G43">
-        <v>1857</v>
+        <v>5237.6174812239051</v>
       </c>
       <c r="H43">
-        <v>209.23344947735191</v>
+        <v>2226.4126314247878</v>
       </c>
       <c r="I43">
-        <v>209.05923344947735</v>
+        <v>95.610199019665714</v>
       </c>
       <c r="J43">
-        <v>1899.2539344947736</v>
+        <v>184.70331601015766</v>
       </c>
       <c r="K43">
-        <v>106</v>
+        <v>2137.3195144342958</v>
       </c>
       <c r="L43">
-        <v>195.1029309175141</v>
+        <v>112.105178</v>
       </c>
       <c r="M43">
-        <v>8.6580611581920923</v>
+        <v>88.092262901694923</v>
       </c>
       <c r="N43">
-        <v>296.16064042598867</v>
+        <v>8.8928271548022586</v>
       </c>
       <c r="O43">
-        <v>1911</v>
+        <v>191.30461374689264</v>
       </c>
       <c r="P43">
-        <v>645.72289301625028</v>
+        <v>2459.0784149463198</v>
       </c>
       <c r="Q43">
-        <v>305.92360618630005</v>
+        <v>624</v>
       </c>
       <c r="R43">
-        <v>2375.0425395963648</v>
+        <v>325.61295191025351</v>
       </c>
       <c r="S43">
-        <v>152.75</v>
+        <v>2757.4654630360665</v>
       </c>
       <c r="T43">
-        <v>4.7972457627118645</v>
+        <v>143.35</v>
       </c>
       <c r="U43">
-        <v>82.100988700564969</v>
+        <v>6.1347104519774005</v>
       </c>
       <c r="V43">
-        <v>2.0906053867833227</v>
+        <v>53.031779661016948</v>
       </c>
       <c r="W43">
-        <v>55.825084520270273</v>
+        <v>2.0431795546729616</v>
       </c>
       <c r="X43">
-        <v>1299.8646225</v>
+        <v>264.73915337837843</v>
       </c>
       <c r="Y43">
-        <v>5700.237028100546</v>
+        <v>1321.7315040000001</v>
       </c>
       <c r="Z43">
         <v>6151.4422631666221</v>
@@ -3808,36 +3479,81 @@
         <v>11.382157314000001</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33">
+      <c r="A44">
+        <v>1999</v>
+      </c>
+      <c r="B44">
+        <v>6570.6024207314722</v>
+      </c>
       <c r="C44">
-        <v>3556.3148591577669</v>
+        <v>6610.8073500165929</v>
+      </c>
+      <c r="D44">
+        <v>5254.540108231472</v>
+      </c>
+      <c r="E44">
+        <v>882.32397571861827</v>
+      </c>
+      <c r="F44">
+        <v>842.11904643349726</v>
       </c>
       <c r="G44">
-        <v>1191</v>
+        <v>5294.7450375165927</v>
+      </c>
+      <c r="H44">
+        <v>2260.7988235078751</v>
+      </c>
+      <c r="I44">
+        <v>117.81240772456151</v>
+      </c>
+      <c r="J44">
+        <v>205.93545148526545</v>
       </c>
       <c r="K44">
-        <v>93</v>
+        <v>2172.6757797471714</v>
+      </c>
+      <c r="L44">
+        <v>115.70509666666668</v>
+      </c>
+      <c r="M44">
+        <v>97.775597615819194</v>
+      </c>
+      <c r="N44">
+        <v>8.7336673220338987</v>
       </c>
       <c r="O44">
-        <v>1680</v>
+        <v>204.74702696045196</v>
+      </c>
+      <c r="P44">
+        <v>2415.8390190005857</v>
+      </c>
+      <c r="Q44">
+        <v>660.0492843185541</v>
+      </c>
+      <c r="R44">
+        <v>305.31275856985343</v>
       </c>
       <c r="S44">
-        <v>136.29999999999998</v>
+        <v>2770.5755447492861</v>
       </c>
       <c r="T44">
-        <v>5.2686793785310737</v>
+        <v>140.06</v>
       </c>
       <c r="U44">
-        <v>69.644103107344634</v>
+        <v>6.3933262711864405</v>
       </c>
       <c r="V44">
-        <v>3.5393945196061734</v>
+        <v>59.680190677966095</v>
       </c>
       <c r="W44">
-        <v>75.134615168918913</v>
+        <v>0.29335978849700256</v>
       </c>
       <c r="X44">
-        <v>1222.9255949999999</v>
+        <v>262.45697837837838</v>
+      </c>
+      <c r="Y44">
+        <v>1316.0623125</v>
       </c>
       <c r="AC44">
         <v>4527.1068530586099</v>
@@ -3852,36 +3568,81 @@
         <v>11.609800884</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33">
+      <c r="A45">
+        <v>2000</v>
+      </c>
+      <c r="B45">
+        <v>6514.4697513783294</v>
+      </c>
       <c r="C45">
-        <v>3534.1932267335133</v>
+        <v>6591.6047274558387</v>
+      </c>
+      <c r="D45">
+        <v>5200.8370923783295</v>
+      </c>
+      <c r="E45">
+        <v>946.28986615199415</v>
+      </c>
+      <c r="F45">
+        <v>869.15489007448514</v>
       </c>
       <c r="G45">
-        <v>1226</v>
+        <v>5277.9720684558388</v>
+      </c>
+      <c r="H45">
+        <v>2203.4351191637629</v>
+      </c>
+      <c r="I45">
+        <v>138.44947735191639</v>
+      </c>
+      <c r="J45">
+        <v>226.48083623693378</v>
       </c>
       <c r="K45">
-        <v>81</v>
+        <v>2115.4037602787457</v>
+      </c>
+      <c r="L45">
+        <v>123.61711400000002</v>
+      </c>
+      <c r="M45">
+        <v>96.04555911864405</v>
+      </c>
+      <c r="N45">
+        <v>7.7513592372881366</v>
       </c>
       <c r="O45">
-        <v>1757</v>
+        <v>211.91131388135594</v>
+      </c>
+      <c r="P45">
+        <v>2415.205939723041</v>
+      </c>
+      <c r="Q45">
+        <v>701.40121878144112</v>
+      </c>
+      <c r="R45">
+        <v>317.34377510873776</v>
       </c>
       <c r="S45">
-        <v>137.94499999999999</v>
+        <v>2799.2633833957443</v>
       </c>
       <c r="T45">
-        <v>14.319811415555703</v>
+        <v>141</v>
       </c>
       <c r="U45">
-        <v>59.050882768361575</v>
+        <v>9.4649717514124294</v>
       </c>
       <c r="V45">
-        <v>7.6708448561062514</v>
+        <v>91.578919491525426</v>
       </c>
       <c r="W45">
-        <v>43.644780729729732</v>
+        <v>0.92863914858009766</v>
       </c>
       <c r="X45">
-        <v>1133.8383000000001</v>
+        <v>226</v>
+      </c>
+      <c r="Y45">
+        <v>1313.6326590000001</v>
       </c>
       <c r="AC45">
         <v>4391.2936474668504</v>
@@ -3896,36 +3657,81 @@
         <v>11.841995913</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33">
+      <c r="A46">
+        <v>2001</v>
+      </c>
+      <c r="B46">
+        <v>6169.3882865868309</v>
+      </c>
       <c r="C46">
-        <v>3458.7853290912121</v>
+        <v>6335.9514460263872</v>
+      </c>
+      <c r="D46">
+        <v>4856.5655120868305</v>
+      </c>
+      <c r="E46">
+        <v>932.02629957880401</v>
+      </c>
+      <c r="F46">
+        <v>765.463140139247</v>
       </c>
       <c r="G46">
-        <v>995</v>
+        <v>5023.1286715263868</v>
+      </c>
+      <c r="H46">
+        <v>2070.3340738675956</v>
+      </c>
+      <c r="I46">
+        <v>112.47386759581882</v>
+      </c>
+      <c r="J46">
+        <v>212.80487804878047</v>
       </c>
       <c r="K46">
-        <v>81</v>
+        <v>1970.003063414634</v>
+      </c>
+      <c r="L46">
+        <v>148.88649299999997</v>
+      </c>
+      <c r="M46">
+        <v>102.76622096610168</v>
+      </c>
+      <c r="N46">
+        <v>7.9903592881355925</v>
       </c>
       <c r="O46">
-        <v>1889</v>
+        <v>243.66235467796608</v>
+      </c>
+      <c r="P46">
+        <v>2350.2780691189896</v>
+      </c>
+      <c r="Q46">
+        <v>706.98385963434794</v>
+      </c>
+      <c r="R46">
+        <v>305.15102670208671</v>
       </c>
       <c r="S46">
-        <v>138</v>
+        <v>2752.1109020512508</v>
       </c>
       <c r="T46">
-        <v>16</v>
+        <v>47.55</v>
       </c>
       <c r="U46">
-        <v>75</v>
+        <v>9.5736935028248578</v>
       </c>
       <c r="V46">
-        <v>8</v>
+        <v>95.684887005649713</v>
       </c>
       <c r="W46">
-        <v>35</v>
+        <v>0.22865787971071502</v>
       </c>
       <c r="X46">
-        <v>1134</v>
+        <v>143.8319890945946</v>
+      </c>
+      <c r="Y46">
+        <v>1312.8227744999999</v>
       </c>
       <c r="AC46">
         <v>4259.55483804285</v>
@@ -3940,36 +3746,81 @@
         <v>12.078834207000002</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33">
+      <c r="A47">
+        <v>2002</v>
+      </c>
+      <c r="B47">
+        <v>5993.1882478757934</v>
+      </c>
       <c r="C47">
-        <v>3584.0701662589991</v>
+        <v>6240.2265429462759</v>
+      </c>
+      <c r="D47">
+        <v>4762.1638078757933</v>
+      </c>
+      <c r="E47">
+        <v>974.14676195719619</v>
+      </c>
+      <c r="F47">
+        <v>727.10846688671336</v>
       </c>
       <c r="G47">
-        <v>1150</v>
+        <v>5009.2021029462758</v>
+      </c>
+      <c r="H47">
+        <v>2055.6999275261323</v>
+      </c>
+      <c r="I47">
+        <v>128.65853658536585</v>
+      </c>
+      <c r="J47">
+        <v>212.42160278745644</v>
       </c>
       <c r="K47">
-        <v>85</v>
+        <v>1971.9368613240417</v>
+      </c>
+      <c r="L47">
+        <v>119.863045</v>
+      </c>
+      <c r="M47">
+        <v>127.47882799999999</v>
+      </c>
+      <c r="N47">
+        <v>7.6067638644067808</v>
       </c>
       <c r="O47">
-        <v>1926</v>
+        <v>239.73510913559321</v>
+      </c>
+      <c r="P47">
+        <v>2352.9126521860862</v>
+      </c>
+      <c r="Q47">
+        <v>705.19386903835789</v>
+      </c>
+      <c r="R47">
+        <v>321.39191707127554</v>
       </c>
       <c r="S47">
-        <v>138</v>
+        <v>2736.7146041531682</v>
       </c>
       <c r="T47">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="U47">
-        <v>65</v>
+        <v>11.314477401129942</v>
       </c>
       <c r="V47">
-        <v>8</v>
+        <v>109.33997175141242</v>
       </c>
       <c r="W47">
-        <v>35</v>
+        <v>1.5010509323424961</v>
       </c>
       <c r="X47">
-        <v>1134</v>
+        <v>76.348211412162158</v>
+      </c>
+      <c r="Y47">
+        <v>1231.0244399999999</v>
       </c>
       <c r="AC47">
         <v>4131.7681929015598</v>
@@ -3984,36 +3835,81 @@
         <v>12.320411103</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33">
+      <c r="A48">
+        <v>2003</v>
+      </c>
+      <c r="B48">
+        <v>5506.8228975244656</v>
+      </c>
       <c r="C48">
-        <v>3608.972408030043</v>
+        <v>5915.743280308855</v>
+      </c>
+      <c r="D48">
+        <v>4541.6397842308843</v>
+      </c>
+      <c r="E48">
+        <v>1010.3947854036928</v>
+      </c>
+      <c r="F48">
+        <v>601.47440261930456</v>
       </c>
       <c r="G48">
-        <v>1147</v>
+        <v>4688.7682628088551</v>
+      </c>
+      <c r="H48">
+        <v>1837</v>
+      </c>
+      <c r="I48">
+        <v>138.24041811846689</v>
+      </c>
+      <c r="J48">
+        <v>202.19394082560677</v>
       </c>
       <c r="K48">
-        <v>88</v>
+        <v>1840.1784605681214</v>
+      </c>
+      <c r="L48">
+        <v>118.98301400000001</v>
+      </c>
+      <c r="M48">
+        <v>123.2251897220339</v>
+      </c>
+      <c r="N48">
+        <v>9.2392658440677984</v>
       </c>
       <c r="O48">
-        <v>1926</v>
+        <v>232.96893787796611</v>
+      </c>
+      <c r="P48">
+        <v>1970</v>
+      </c>
+      <c r="Q48">
+        <v>734.55192602553484</v>
+      </c>
+      <c r="R48">
+        <v>252.60117699589654</v>
       </c>
       <c r="S48">
-        <v>138</v>
+        <v>2451.7836128251106</v>
       </c>
       <c r="T48">
-        <v>27</v>
+        <v>149.46</v>
       </c>
       <c r="U48">
-        <v>67</v>
+        <v>10.652789548022598</v>
       </c>
       <c r="V48">
-        <v>8</v>
+        <v>93.990148305084745</v>
       </c>
       <c r="W48">
-        <v>35</v>
+        <v>3.7244619896345799</v>
       </c>
       <c r="X48">
-        <v>1134</v>
+        <v>43.449870648648648</v>
+      </c>
+      <c r="Y48">
+        <v>1226.9750174999999</v>
       </c>
       <c r="AC48">
         <v>4007.8151471145202</v>
@@ -4028,36 +3924,81 @@
         <v>12.566818407000001</v>
       </c>
     </row>
-    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33">
+      <c r="A49">
+        <v>2004</v>
+      </c>
+      <c r="B49">
+        <v>5731.0214651297138</v>
+      </c>
       <c r="C49">
-        <v>3753.0938751209219</v>
+        <v>6200.1608471330746</v>
+      </c>
+      <c r="D49">
+        <v>4718.9626238274477</v>
+      </c>
+      <c r="E49">
+        <v>1126.9413695099508</v>
+      </c>
+      <c r="F49">
+        <v>657.80198750658985</v>
       </c>
       <c r="G49">
-        <v>1287</v>
+        <v>4952.9387171330745</v>
+      </c>
+      <c r="H49">
+        <v>1935</v>
+      </c>
+      <c r="I49">
+        <v>173.27526132404182</v>
+      </c>
+      <c r="J49">
+        <v>222.4207169432469</v>
       </c>
       <c r="K49">
-        <v>91</v>
+        <v>1994.1851339278335</v>
+      </c>
+      <c r="L49">
+        <v>124.559562</v>
+      </c>
+      <c r="M49">
+        <v>178.10710385084747</v>
+      </c>
+      <c r="N49">
+        <v>11.67363963276836</v>
       </c>
       <c r="O49">
-        <v>1926</v>
+        <v>290.99302621807914</v>
+      </c>
+      <c r="P49">
+        <v>2009</v>
+      </c>
+      <c r="Q49">
+        <v>761.66004483640597</v>
+      </c>
+      <c r="R49">
+        <v>266.07513101318273</v>
       </c>
       <c r="S49">
-        <v>138</v>
+        <v>2504.4015974885065</v>
       </c>
       <c r="T49">
-        <v>27</v>
+        <v>149.46</v>
       </c>
       <c r="U49">
-        <v>67</v>
+        <v>10.363700564971751</v>
       </c>
       <c r="V49">
-        <v>8</v>
+        <v>110.18820621468926</v>
       </c>
       <c r="W49">
-        <v>35</v>
+        <v>3.535258933683751</v>
       </c>
       <c r="X49">
-        <v>1134</v>
+        <v>47.444293702702701</v>
+      </c>
+      <c r="Y49">
+        <v>1247.2221300000001</v>
       </c>
       <c r="AC49">
         <v>3887.5806927010799</v>
@@ -4072,30 +4013,81 @@
         <v>12.818154987</v>
       </c>
     </row>
-    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33">
+      <c r="A50">
+        <v>2005</v>
+      </c>
+      <c r="B50">
+        <v>5712.44014538183</v>
+      </c>
       <c r="C50">
-        <v>3897.2153422118008</v>
+        <v>6192.6366627436582</v>
+      </c>
+      <c r="D50">
+        <v>4746.3408375806839</v>
+      </c>
+      <c r="E50">
+        <v>1152.4210936636912</v>
+      </c>
+      <c r="F50">
+        <v>672.22457630186511</v>
       </c>
       <c r="G50">
-        <v>1395.1417014708552</v>
+        <v>4937.3156877436586</v>
+      </c>
+      <c r="H50">
+        <v>1953</v>
+      </c>
+      <c r="I50">
+        <v>187.30435540069683</v>
+      </c>
+      <c r="J50">
+        <v>252.75349908462766</v>
       </c>
       <c r="K50">
-        <v>102.50535911602211</v>
+        <v>1956.4528744345359</v>
+      </c>
+      <c r="L50">
+        <v>124.702223</v>
+      </c>
+      <c r="M50">
+        <v>176.14421161468928</v>
+      </c>
+      <c r="N50">
+        <v>10.975461363841807</v>
       </c>
       <c r="O50">
-        <v>2824.2119155120449</v>
+        <v>289.8709732508475</v>
+      </c>
+      <c r="P50">
+        <v>2035</v>
+      </c>
+      <c r="Q50">
+        <v>766.18868744191639</v>
+      </c>
+      <c r="R50">
+        <v>282.50070583644646</v>
+      </c>
+      <c r="S50">
+        <v>2518.7480008518851</v>
       </c>
       <c r="T50">
-        <v>4.7972457627118645</v>
+        <v>149.46</v>
       </c>
       <c r="U50">
-        <v>82.100988700564969</v>
+        <v>15.112994350282484</v>
       </c>
       <c r="V50">
-        <v>13.074519711000001</v>
+        <v>88.029661016949149</v>
       </c>
       <c r="W50">
-        <v>133.15236003149695</v>
+        <v>7.6708448561062514</v>
+      </c>
+      <c r="X50">
+        <v>37.965249000000014</v>
+      </c>
+      <c r="Y50">
+        <v>1255.3209750000001</v>
       </c>
       <c r="AC50">
         <v>3770.9532719200502</v>
@@ -4110,30 +4102,81 @@
         <v>13.074519711000001</v>
       </c>
     </row>
-    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33">
+      <c r="A51">
+        <v>2006</v>
+      </c>
+      <c r="B51">
+        <v>5637.1259241412145</v>
+      </c>
       <c r="C51">
-        <v>4041.3368093026797</v>
+        <v>6116.2577028478026</v>
+      </c>
+      <c r="D51">
+        <v>4706.523374245513</v>
+      </c>
+      <c r="E51">
+        <v>1086.7929280578187</v>
+      </c>
+      <c r="F51">
+        <v>607.66114935123039</v>
       </c>
       <c r="G51">
-        <v>1513.0816597058288</v>
+        <v>4856.8873053478028</v>
+      </c>
+      <c r="H51">
+        <v>1927</v>
+      </c>
+      <c r="I51">
+        <v>157.76689895470383</v>
+      </c>
+      <c r="J51">
+        <v>249.01219512195121</v>
       </c>
       <c r="K51">
-        <v>104.99635359116023</v>
+        <v>1907.3117742160275</v>
+      </c>
+      <c r="L51">
+        <v>113</v>
+      </c>
+      <c r="M51">
+        <v>195.93807691751411</v>
+      </c>
+      <c r="N51">
+        <v>8.5138391581920931</v>
       </c>
       <c r="O51">
-        <v>2898.1599276945894</v>
+        <v>303.11927175932203</v>
+      </c>
+      <c r="P51">
+        <v>2034</v>
+      </c>
+      <c r="Q51">
+        <v>721.73708661835894</v>
+      </c>
+      <c r="R51">
+        <v>272.27494557956175</v>
+      </c>
+      <c r="S51">
+        <v>2484.7053938052122</v>
       </c>
       <c r="T51">
-        <v>4.7972457627118645</v>
+        <v>150.39999999999998</v>
       </c>
       <c r="U51">
-        <v>82.100988700564969</v>
+        <v>8.9101694915254228</v>
       </c>
       <c r="V51">
-        <v>13.336011447000001</v>
+        <v>77.873269774011291</v>
       </c>
       <c r="W51">
-        <v>129.15778923055211</v>
+        <v>2.4406960757161373</v>
+      </c>
+      <c r="X51">
+        <v>45.551322060810804</v>
+      </c>
+      <c r="Y51">
+        <v>1259.3703975000001</v>
       </c>
       <c r="AC51">
         <v>3657.8246737624499</v>
@@ -4148,30 +4191,81 @@
         <v>13.336011447000001</v>
       </c>
     </row>
-    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33">
+      <c r="A52">
+        <v>2007</v>
+      </c>
+      <c r="B52">
+        <v>5700.237028100546</v>
+      </c>
       <c r="C52">
-        <v>4185.4582763935587</v>
+        <v>6151.4422631666221</v>
+      </c>
+      <c r="D52">
+        <v>4517.4347298463708</v>
+      </c>
+      <c r="E52">
+        <v>1056.9471245606114</v>
+      </c>
+      <c r="F52">
+        <v>605.74188949453435</v>
       </c>
       <c r="G52">
-        <v>1631.0216179408023</v>
+        <v>4730.0949656666216</v>
+      </c>
+      <c r="H52">
+        <v>1857</v>
+      </c>
+      <c r="I52">
+        <v>209.23344947735191</v>
+      </c>
+      <c r="J52">
+        <v>209.05923344947735</v>
       </c>
       <c r="K52">
-        <v>107.48734806629835</v>
+        <v>1899.2539344947736</v>
+      </c>
+      <c r="L52">
+        <v>106</v>
+      </c>
+      <c r="M52">
+        <v>195.1029309175141</v>
+      </c>
+      <c r="N52">
+        <v>8.6580611581920923</v>
       </c>
       <c r="O52">
-        <v>2909.9702854739235</v>
+        <v>296.16064042598867</v>
+      </c>
+      <c r="P52">
+        <v>1911</v>
+      </c>
+      <c r="Q52">
+        <v>645.72289301625028</v>
+      </c>
+      <c r="R52">
+        <v>305.92360618630005</v>
+      </c>
+      <c r="S52">
+        <v>2375.0425395963648</v>
       </c>
       <c r="T52">
+        <v>152.75</v>
+      </c>
+      <c r="U52">
         <v>4.7972457627118645</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>82.100988700564969</v>
       </c>
-      <c r="V52">
-        <v>13.602732594000001</v>
-      </c>
       <c r="W52">
-        <v>125.28305555363534</v>
+        <v>2.0906053867833227</v>
+      </c>
+      <c r="X52">
+        <v>55.825084520270273</v>
+      </c>
+      <c r="Y52">
+        <v>1299.8646225</v>
       </c>
       <c r="AC52">
         <v>3548.0899335495701</v>
@@ -4186,30 +4280,39 @@
         <v>13.602732594000001</v>
       </c>
     </row>
-    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C53">
-        <v>4329.5797434844371</v>
-      </c>
-      <c r="G53">
-        <v>1748.9615761757759</v>
-      </c>
-      <c r="K53">
-        <v>109.97834254143649</v>
-      </c>
-      <c r="O53">
-        <v>2955.6953303502232</v>
+    <row r="53" spans="1:33">
+      <c r="A53">
+        <v>2008</v>
+      </c>
+      <c r="D53">
+        <v>3556.3148591577669</v>
+      </c>
+      <c r="H53">
+        <v>1191</v>
+      </c>
+      <c r="L53">
+        <v>93</v>
+      </c>
+      <c r="P53">
+        <v>1680</v>
       </c>
       <c r="T53">
-        <v>4.7972457627118645</v>
+        <v>136.29999999999998</v>
       </c>
       <c r="U53">
-        <v>82.100988700564969</v>
+        <v>5.2686793785310737</v>
       </c>
       <c r="V53">
-        <v>13.738760838000003</v>
+        <v>69.644103107344634</v>
       </c>
       <c r="W53">
-        <v>121.52456388702653</v>
+        <v>3.5393945196061734</v>
+      </c>
+      <c r="X53">
+        <v>75.134615168918913</v>
+      </c>
+      <c r="Y53">
+        <v>1222.9255949999999</v>
       </c>
       <c r="AC53">
         <v>3441.6472355430901</v>
@@ -4224,30 +4327,39 @@
         <v>13.738760838000003</v>
       </c>
     </row>
-    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C54">
-        <v>4473.7012105753156</v>
-      </c>
-      <c r="G54">
-        <v>1866.9015344107495</v>
-      </c>
-      <c r="K54">
-        <v>112.46933701657461</v>
-      </c>
-      <c r="O54">
-        <v>2995.0260770407203</v>
+    <row r="54" spans="1:33">
+      <c r="A54">
+        <v>2009</v>
+      </c>
+      <c r="D54">
+        <v>3534.1932267335133</v>
+      </c>
+      <c r="H54">
+        <v>1226</v>
+      </c>
+      <c r="L54">
+        <v>81</v>
+      </c>
+      <c r="P54">
+        <v>1757</v>
       </c>
       <c r="T54">
-        <v>4.7972457627118645</v>
+        <v>137.94499999999999</v>
       </c>
       <c r="U54">
-        <v>82.100988700564969</v>
+        <v>14.319811415555703</v>
       </c>
       <c r="V54">
-        <v>13.876148517000001</v>
+        <v>59.050882768361575</v>
       </c>
       <c r="W54">
-        <v>117.87882697041545</v>
+        <v>7.6708448561062514</v>
+      </c>
+      <c r="X54">
+        <v>43.644780729729732</v>
+      </c>
+      <c r="Y54">
+        <v>1133.8383000000001</v>
       </c>
       <c r="AC54">
         <v>3338.3978184767898</v>
@@ -4262,30 +4374,39 @@
         <v>13.876148517000001</v>
       </c>
     </row>
-    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C55">
-        <v>4617.8226776661941</v>
-      </c>
-      <c r="G55">
-        <v>1984.8414926457231</v>
-      </c>
-      <c r="K55">
-        <v>114.96033149171274</v>
-      </c>
-      <c r="O55">
-        <v>3027.912365236748</v>
+    <row r="55" spans="1:33">
+      <c r="A55">
+        <v>2010</v>
+      </c>
+      <c r="D55">
+        <v>3458.7853290912121</v>
+      </c>
+      <c r="H55">
+        <v>995</v>
+      </c>
+      <c r="L55">
+        <v>81</v>
+      </c>
+      <c r="P55">
+        <v>1889</v>
       </c>
       <c r="T55">
-        <v>4.7972457627118645</v>
+        <v>138</v>
       </c>
       <c r="U55">
-        <v>82.100988700564969</v>
+        <v>16</v>
       </c>
       <c r="V55">
-        <v>14.014909755000001</v>
+        <v>75</v>
       </c>
       <c r="W55">
-        <v>114.34246216130313</v>
+        <v>8</v>
+      </c>
+      <c r="X55">
+        <v>35</v>
+      </c>
+      <c r="Y55">
+        <v>1134</v>
       </c>
       <c r="AC55">
         <v>3238.2458839224901</v>
@@ -4300,30 +4421,39 @@
         <v>14.014909755000001</v>
       </c>
     </row>
-    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C56">
-        <v>4900</v>
-      </c>
-      <c r="G56">
-        <v>2169.4933720719087</v>
-      </c>
-      <c r="K56">
-        <v>118.61878453038673</v>
-      </c>
-      <c r="O56">
-        <v>3073.3866570685113</v>
+    <row r="56" spans="1:33">
+      <c r="A56">
+        <v>2011</v>
+      </c>
+      <c r="D56">
+        <v>3584.0701662589991</v>
+      </c>
+      <c r="H56">
+        <v>1150</v>
+      </c>
+      <c r="L56">
+        <v>85</v>
+      </c>
+      <c r="P56">
+        <v>1926</v>
       </c>
       <c r="T56">
-        <v>4.7972457627118645</v>
+        <v>138</v>
       </c>
       <c r="U56">
-        <v>82.100988700564969</v>
+        <v>16</v>
       </c>
       <c r="V56">
-        <v>14.155058676000001</v>
+        <v>65</v>
       </c>
       <c r="W56">
-        <v>110.91218829646419</v>
+        <v>8</v>
+      </c>
+      <c r="X56">
+        <v>35</v>
+      </c>
+      <c r="Y56">
+        <v>1134</v>
       </c>
       <c r="AC56">
         <v>3141.0985074048199</v>
@@ -4338,7 +4468,311 @@
         <v>14.155058676000001</v>
       </c>
     </row>
+    <row r="57" spans="1:33">
+      <c r="A57">
+        <v>2012</v>
+      </c>
+      <c r="D57">
+        <v>3608.972408030043</v>
+      </c>
+      <c r="H57">
+        <v>1147</v>
+      </c>
+      <c r="L57">
+        <v>88</v>
+      </c>
+      <c r="P57">
+        <v>1926</v>
+      </c>
+      <c r="T57">
+        <v>138</v>
+      </c>
+      <c r="U57">
+        <v>27</v>
+      </c>
+      <c r="V57">
+        <v>67</v>
+      </c>
+      <c r="W57">
+        <v>8</v>
+      </c>
+      <c r="X57">
+        <v>35</v>
+      </c>
+      <c r="Y57">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
+      <c r="A58">
+        <v>2013</v>
+      </c>
+      <c r="D58">
+        <v>3753.0938751209219</v>
+      </c>
+      <c r="H58">
+        <v>1287</v>
+      </c>
+      <c r="L58">
+        <v>91</v>
+      </c>
+      <c r="P58">
+        <v>1926</v>
+      </c>
+      <c r="T58">
+        <v>138</v>
+      </c>
+      <c r="U58">
+        <v>27</v>
+      </c>
+      <c r="V58">
+        <v>67</v>
+      </c>
+      <c r="W58">
+        <v>8</v>
+      </c>
+      <c r="X58">
+        <v>35</v>
+      </c>
+      <c r="Y58">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
+      <c r="A59">
+        <v>2014</v>
+      </c>
+      <c r="D59">
+        <v>3897.2153422118008</v>
+      </c>
+      <c r="H59">
+        <v>1395.1417014708552</v>
+      </c>
+      <c r="L59">
+        <v>102.50535911602211</v>
+      </c>
+      <c r="P59">
+        <v>2824.2119155120449</v>
+      </c>
+      <c r="U59">
+        <v>4.7972457627118645</v>
+      </c>
+      <c r="V59">
+        <v>82.100988700564969</v>
+      </c>
+      <c r="W59">
+        <v>13.074519711000001</v>
+      </c>
+      <c r="X59">
+        <v>133.15236003149695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
+      <c r="A60">
+        <v>2015</v>
+      </c>
+      <c r="D60">
+        <v>4041.3368093026797</v>
+      </c>
+      <c r="H60">
+        <v>1513.0816597058288</v>
+      </c>
+      <c r="L60">
+        <v>104.99635359116023</v>
+      </c>
+      <c r="P60">
+        <v>2898.1599276945894</v>
+      </c>
+      <c r="U60">
+        <v>4.7972457627118645</v>
+      </c>
+      <c r="V60">
+        <v>82.100988700564969</v>
+      </c>
+      <c r="W60">
+        <v>13.336011447000001</v>
+      </c>
+      <c r="X60">
+        <v>129.15778923055211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
+      <c r="A61">
+        <v>2016</v>
+      </c>
+      <c r="D61">
+        <v>4185.4582763935587</v>
+      </c>
+      <c r="H61">
+        <v>1631.0216179408023</v>
+      </c>
+      <c r="L61">
+        <v>107.48734806629835</v>
+      </c>
+      <c r="P61">
+        <v>2909.9702854739235</v>
+      </c>
+      <c r="U61">
+        <v>4.7972457627118645</v>
+      </c>
+      <c r="V61">
+        <v>82.100988700564969</v>
+      </c>
+      <c r="W61">
+        <v>13.602732594000001</v>
+      </c>
+      <c r="X61">
+        <v>125.28305555363534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
+      <c r="A62">
+        <v>2017</v>
+      </c>
+      <c r="D62">
+        <v>4329.5797434844371</v>
+      </c>
+      <c r="H62">
+        <v>1748.9615761757759</v>
+      </c>
+      <c r="L62">
+        <v>109.97834254143649</v>
+      </c>
+      <c r="P62">
+        <v>2955.6953303502232</v>
+      </c>
+      <c r="U62">
+        <v>4.7972457627118645</v>
+      </c>
+      <c r="V62">
+        <v>82.100988700564969</v>
+      </c>
+      <c r="W62">
+        <v>13.738760838000003</v>
+      </c>
+      <c r="X62">
+        <v>121.52456388702653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
+      <c r="A63">
+        <v>2018</v>
+      </c>
+      <c r="D63">
+        <v>4473.7012105753156</v>
+      </c>
+      <c r="H63">
+        <v>1866.9015344107495</v>
+      </c>
+      <c r="L63">
+        <v>112.46933701657461</v>
+      </c>
+      <c r="P63">
+        <v>2995.0260770407203</v>
+      </c>
+      <c r="U63">
+        <v>4.7972457627118645</v>
+      </c>
+      <c r="V63">
+        <v>82.100988700564969</v>
+      </c>
+      <c r="W63">
+        <v>13.876148517000001</v>
+      </c>
+      <c r="X63">
+        <v>117.87882697041545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
+      <c r="A64">
+        <v>2019</v>
+      </c>
+      <c r="D64">
+        <v>4617.8226776661941</v>
+      </c>
+      <c r="H64">
+        <v>1984.8414926457231</v>
+      </c>
+      <c r="L64">
+        <v>114.96033149171274</v>
+      </c>
+      <c r="P64">
+        <v>3027.912365236748</v>
+      </c>
+      <c r="U64">
+        <v>4.7972457627118645</v>
+      </c>
+      <c r="V64">
+        <v>82.100988700564969</v>
+      </c>
+      <c r="W64">
+        <v>14.014909755000001</v>
+      </c>
+      <c r="X64">
+        <v>114.34246216130313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65">
+        <v>2020</v>
+      </c>
+      <c r="D65">
+        <v>4900</v>
+      </c>
+      <c r="H65">
+        <v>2169.4933720719087</v>
+      </c>
+      <c r="L65">
+        <v>118.61878453038673</v>
+      </c>
+      <c r="P65">
+        <v>3073.3866570685113</v>
+      </c>
+      <c r="U65">
+        <v>4.7972457627118645</v>
+      </c>
+      <c r="V65">
+        <v>82.100988700564969</v>
+      </c>
+      <c r="W65">
+        <v>14.155058676000001</v>
+      </c>
+      <c r="X65">
+        <v>110.91218829646419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="B66">
+        <v>6883.3442780352052</v>
+      </c>
+      <c r="C66">
+        <v>6757.495180718246</v>
+      </c>
+      <c r="D66">
+        <v>5000.3363344352047</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>